--- a/capiq_data/in_process_data/IQ98873.xlsx
+++ b/capiq_data/in_process_data/IQ98873.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933DF308-DADD-4937-8BD6-5C2CDB002C79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED98330F-4306-4D74-AF56-AF3D53633118}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"4ff596c2-8c71-4971-9805-89b0b2bd7529"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"38ecd74a-9398-46ce-be56-de5c7e2ec99c"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>135.51300000000001</v>
+        <v>115.962</v>
       </c>
       <c r="D2">
-        <v>1482.809</v>
+        <v>1194.902</v>
       </c>
       <c r="E2">
-        <v>390.06099999999998</v>
+        <v>379.68</v>
       </c>
       <c r="F2">
-        <v>626.01499999999999</v>
+        <v>527.34900000000005</v>
       </c>
       <c r="G2">
-        <v>2005.2170000000001</v>
+        <v>1295.348</v>
       </c>
       <c r="H2">
-        <v>4272.732</v>
+        <v>3447.7640000000001</v>
       </c>
       <c r="I2">
-        <v>410.65499999999997</v>
+        <v>149.232</v>
       </c>
       <c r="J2">
-        <v>1541.825</v>
+        <v>877.654</v>
       </c>
       <c r="K2">
-        <v>24.088000000000001</v>
+        <v>257.59399999999999</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,37 +892,37 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1298.845</v>
+        <v>766.90099999999995</v>
       </c>
       <c r="O2">
-        <v>3335.1309999999999</v>
+        <v>2272.7280000000001</v>
       </c>
       <c r="P2">
-        <v>1836.1780000000001</v>
+        <v>1135.777</v>
       </c>
       <c r="Q2">
-        <v>639.69500000000005</v>
+        <v>-12.340999999999999</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>11300</v>
+        <v>14300</v>
       </c>
       <c r="T2">
-        <v>937.601</v>
+        <v>1175.0360000000001</v>
       </c>
       <c r="U2">
-        <v>884.64200000000005</v>
+        <v>31.969000000000001</v>
       </c>
       <c r="V2">
-        <v>513.22400000000005</v>
+        <v>404.65300000000002</v>
       </c>
       <c r="W2">
-        <v>-70.831999999999994</v>
+        <v>-37.377000000000002</v>
       </c>
       <c r="X2">
-        <v>204.14699999999999</v>
+        <v>-252.41399999999999</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -811,81 +931,81 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>135.51300000000001</v>
+        <v>115.962</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40636</v>
+        <v>36982</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>160.11500000000001</v>
+        <v>78.906000000000006</v>
       </c>
       <c r="D3">
-        <v>1564.223</v>
+        <v>988.00199999999995</v>
       </c>
       <c r="E3">
-        <v>433.51900000000001</v>
+        <v>308.51900000000001</v>
       </c>
       <c r="F3">
-        <v>663.04399999999998</v>
+        <v>350.048</v>
       </c>
       <c r="G3">
-        <v>1954.521</v>
+        <v>1120.3019999999999</v>
       </c>
       <c r="H3">
-        <v>4235.1549999999997</v>
+        <v>3301.4029999999998</v>
       </c>
       <c r="I3">
-        <v>381.50400000000002</v>
+        <v>147.93600000000001</v>
       </c>
       <c r="J3">
-        <v>1540.924</v>
+        <v>877.51</v>
       </c>
       <c r="K3">
-        <v>24.474</v>
+        <v>49.598999999999997</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>-207.995</v>
       </c>
       <c r="M3">
-        <v>-1.496</v>
+        <v>-7.5999999999999998E-2</v>
       </c>
       <c r="N3">
-        <v>1290.932</v>
+        <v>573.27599999999995</v>
       </c>
       <c r="O3">
-        <v>3326.1709999999998</v>
+        <v>2070.58</v>
       </c>
       <c r="P3">
-        <v>1834.4659999999999</v>
+        <v>927.74300000000005</v>
       </c>
       <c r="Q3">
-        <v>-132.376</v>
+        <v>-5.7149999999999999</v>
       </c>
       <c r="R3">
-        <v>40636</v>
+        <v>36982</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>908.98400000000004</v>
+        <v>1230.8230000000001</v>
       </c>
       <c r="U3">
-        <v>752.26599999999996</v>
+        <v>26.254000000000001</v>
       </c>
       <c r="V3">
-        <v>159.37799999999999</v>
+        <v>252.54499999999999</v>
       </c>
       <c r="W3">
-        <v>-76.623000000000005</v>
+        <v>-37.378</v>
       </c>
       <c r="X3">
-        <v>-204.57300000000001</v>
+        <v>-234.518</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -894,42 +1014,42 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>160.11500000000001</v>
+        <v>78.906000000000006</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40727</v>
+        <v>37073</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>130.01900000000001</v>
+        <v>52.439</v>
       </c>
       <c r="D4">
-        <v>1325.171</v>
+        <v>817.32600000000002</v>
       </c>
       <c r="E4">
-        <v>296.94600000000003</v>
+        <v>256.517</v>
       </c>
       <c r="F4">
-        <v>571.34299999999996</v>
+        <v>300.06799999999998</v>
       </c>
       <c r="G4">
-        <v>1992.076</v>
+        <v>1245.3150000000001</v>
       </c>
       <c r="H4">
-        <v>4312.7529999999997</v>
+        <v>3427.4989999999998</v>
       </c>
       <c r="I4">
-        <v>399.84100000000001</v>
+        <v>155.86600000000001</v>
       </c>
       <c r="J4">
-        <v>1541.3879999999999</v>
+        <v>877.41499999999996</v>
       </c>
       <c r="K4">
-        <v>34.484999999999999</v>
+        <v>277.84300000000002</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,37 +1058,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1221.8130000000001</v>
+        <v>754.9</v>
       </c>
       <c r="O4">
-        <v>3267.0590000000002</v>
+        <v>2259.5920000000001</v>
       </c>
       <c r="P4">
-        <v>1850.56</v>
+        <v>1156.098</v>
       </c>
       <c r="Q4">
-        <v>38.030999999999999</v>
+        <v>-5.1829999999999998</v>
       </c>
       <c r="R4">
-        <v>40727</v>
+        <v>37073</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>1045.694</v>
+        <v>1167.9069999999999</v>
       </c>
       <c r="U4">
-        <v>790.29700000000003</v>
+        <v>21.071000000000002</v>
       </c>
       <c r="V4">
-        <v>127.31399999999999</v>
+        <v>-85.141999999999996</v>
       </c>
       <c r="W4">
-        <v>-76.066000000000003</v>
+        <v>-37.158000000000001</v>
       </c>
       <c r="X4">
-        <v>9.0559999999999992</v>
+        <v>123.21299999999999</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -977,42 +1097,42 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>130.01900000000001</v>
+        <v>52.439</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40818</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>196.69499999999999</v>
+        <v>120.762</v>
       </c>
       <c r="D5">
-        <v>1624.249</v>
+        <v>1178.9090000000001</v>
       </c>
       <c r="E5">
-        <v>620.745</v>
+        <v>548.40899999999999</v>
       </c>
       <c r="F5">
-        <v>689.64499999999998</v>
+        <v>425.50599999999997</v>
       </c>
       <c r="G5">
-        <v>1814.0150000000001</v>
+        <v>1468.2149999999999</v>
       </c>
       <c r="H5">
-        <v>4130.5060000000003</v>
+        <v>3611.3389999999999</v>
       </c>
       <c r="I5">
-        <v>430.25099999999998</v>
+        <v>162.99799999999999</v>
       </c>
       <c r="J5">
-        <v>1498.8620000000001</v>
+        <v>876.98099999999999</v>
       </c>
       <c r="K5">
-        <v>39.860999999999997</v>
+        <v>237.203</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,37 +1141,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1181.4269999999999</v>
+        <v>860.55600000000004</v>
       </c>
       <c r="O5">
-        <v>3175.8290000000002</v>
+        <v>2369.7289999999998</v>
       </c>
       <c r="P5">
-        <v>1639.2919999999999</v>
+        <v>1115.279</v>
       </c>
       <c r="Q5">
-        <v>-497.95800000000003</v>
+        <v>28.097000000000001</v>
       </c>
       <c r="R5">
-        <v>40818</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>954.67700000000002</v>
+        <v>1241.6099999999999</v>
       </c>
       <c r="U5">
-        <v>292.339</v>
+        <v>49.167999999999999</v>
       </c>
       <c r="V5">
-        <v>-29.463000000000001</v>
+        <v>116.342</v>
       </c>
       <c r="W5">
-        <v>-75.701999999999998</v>
+        <v>-40.061</v>
       </c>
       <c r="X5">
-        <v>-402.92899999999997</v>
+        <v>-94.048000000000002</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1060,42 +1180,42 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>196.69499999999999</v>
+        <v>120.762</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>142.13300000000001</v>
+        <v>-44.951000000000001</v>
       </c>
       <c r="D6">
-        <v>1567.145</v>
+        <v>1152.98</v>
       </c>
       <c r="E6">
-        <v>399.49900000000002</v>
+        <v>361.726</v>
       </c>
       <c r="F6">
-        <v>652.95600000000002</v>
+        <v>443.166</v>
       </c>
       <c r="G6">
-        <v>2046.558</v>
+        <v>1167.5409999999999</v>
       </c>
       <c r="H6">
-        <v>4407.0940000000001</v>
+        <v>3247.43</v>
       </c>
       <c r="I6">
-        <v>420.017</v>
+        <v>133.04900000000001</v>
       </c>
       <c r="J6">
-        <v>1748.5</v>
+        <v>876.97199999999998</v>
       </c>
       <c r="K6">
-        <v>42.08</v>
+        <v>7.0049999999999999</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,37 +1224,37 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1173.7750000000001</v>
+        <v>606.44399999999996</v>
       </c>
       <c r="O6">
-        <v>3526.1509999999998</v>
+        <v>2100.2260000000001</v>
       </c>
       <c r="P6">
-        <v>1888.173</v>
+        <v>884.89800000000002</v>
       </c>
       <c r="Q6">
-        <v>401.34699999999998</v>
+        <v>84.978999999999999</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>11800</v>
+        <v>14400</v>
       </c>
       <c r="T6">
-        <v>880.94299999999998</v>
+        <v>1147.204</v>
       </c>
       <c r="U6">
-        <v>693.68600000000004</v>
+        <v>134.14699999999999</v>
       </c>
       <c r="V6">
-        <v>330.63799999999998</v>
+        <v>422.66</v>
       </c>
       <c r="W6">
-        <v>-75.691999999999993</v>
+        <v>-40.152999999999999</v>
       </c>
       <c r="X6">
-        <v>159.62799999999999</v>
+        <v>-274.887</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1143,81 +1263,81 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>142.13300000000001</v>
+        <v>-44.951000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>41000</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>198.65100000000001</v>
+        <v>87.045000000000002</v>
       </c>
       <c r="D7">
-        <v>1732.0640000000001</v>
+        <v>988.50599999999997</v>
       </c>
       <c r="E7">
-        <v>502.45499999999998</v>
+        <v>292.226</v>
       </c>
       <c r="F7">
-        <v>762.85</v>
+        <v>364.68200000000002</v>
       </c>
       <c r="G7">
-        <v>2012.4449999999999</v>
+        <v>1245.6759999999999</v>
       </c>
       <c r="H7">
-        <v>4599.4570000000003</v>
+        <v>3324.5439999999999</v>
       </c>
       <c r="I7">
-        <v>380.404</v>
+        <v>162.33199999999999</v>
       </c>
       <c r="J7">
-        <v>1748.63</v>
+        <v>876.97900000000004</v>
       </c>
       <c r="K7">
-        <v>146.67699999999999</v>
+        <v>7.0449999999999999</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-1.5129999999999999</v>
+        <v>-0.214</v>
       </c>
       <c r="N7">
-        <v>1323.809</v>
+        <v>575.00800000000004</v>
       </c>
       <c r="O7">
-        <v>3713.864</v>
+        <v>2065.6280000000002</v>
       </c>
       <c r="P7">
-        <v>1993.085</v>
+        <v>884.76300000000003</v>
       </c>
       <c r="Q7">
-        <v>-126.34699999999999</v>
+        <v>85.879000000000005</v>
       </c>
       <c r="R7">
-        <v>41000</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>885.59299999999996</v>
+        <v>1258.9159999999999</v>
       </c>
       <c r="U7">
-        <v>567.33900000000006</v>
+        <v>220.02600000000001</v>
       </c>
       <c r="V7">
-        <v>275.80200000000002</v>
+        <v>140.428</v>
       </c>
       <c r="W7">
-        <v>-83.533000000000001</v>
+        <v>-40.5</v>
       </c>
       <c r="X7">
-        <v>-128.566</v>
+        <v>-34.847000000000001</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1226,42 +1346,42 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>198.65100000000001</v>
+        <v>87.045000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41091</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>135.685</v>
+        <v>63.148000000000003</v>
       </c>
       <c r="D8">
-        <v>1414.444</v>
+        <v>823.46199999999999</v>
       </c>
       <c r="E8">
-        <v>353.33699999999999</v>
+        <v>279.54300000000001</v>
       </c>
       <c r="F8">
-        <v>631.95000000000005</v>
+        <v>313.471</v>
       </c>
       <c r="G8">
-        <v>2093.5729999999999</v>
+        <v>1256.5419999999999</v>
       </c>
       <c r="H8">
-        <v>4667.9719999999998</v>
+        <v>3288.6489999999999</v>
       </c>
       <c r="I8">
-        <v>388.47199999999998</v>
+        <v>134.25800000000001</v>
       </c>
       <c r="J8">
-        <v>1500.376</v>
+        <v>868.48500000000001</v>
       </c>
       <c r="K8">
-        <v>139.35599999999999</v>
+        <v>7.7329999999999997</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,37 +1390,37 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1446.972</v>
+        <v>526.23</v>
       </c>
       <c r="O8">
-        <v>3582.0010000000002</v>
+        <v>1996.1110000000001</v>
       </c>
       <c r="P8">
-        <v>1996.9749999999999</v>
+        <v>876.72799999999995</v>
       </c>
       <c r="Q8">
-        <v>22.443000000000001</v>
+        <v>-35.235999999999997</v>
       </c>
       <c r="R8">
-        <v>41091</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>1085.971</v>
+        <v>1292.538</v>
       </c>
       <c r="U8">
-        <v>589.78200000000004</v>
+        <v>184.79</v>
       </c>
       <c r="V8">
-        <v>38.356000000000002</v>
+        <v>28.495999999999999</v>
       </c>
       <c r="W8">
-        <v>-83.561000000000007</v>
+        <v>-40.411999999999999</v>
       </c>
       <c r="X8">
-        <v>47.091000000000001</v>
+        <v>-41.451999999999998</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1309,42 +1429,42 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>135.685</v>
+        <v>63.148000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37528</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>176.71600000000001</v>
+        <v>123.065</v>
       </c>
       <c r="D9">
-        <v>1746.7090000000001</v>
+        <v>1152.3209999999999</v>
       </c>
       <c r="E9">
-        <v>649.32799999999997</v>
+        <v>676.84699999999998</v>
       </c>
       <c r="F9">
-        <v>747.91499999999996</v>
+        <v>435.12400000000002</v>
       </c>
       <c r="G9">
-        <v>2135.9549999999999</v>
+        <v>1458.9690000000001</v>
       </c>
       <c r="H9">
-        <v>4737.7820000000002</v>
+        <v>3446.0369999999998</v>
       </c>
       <c r="I9">
-        <v>435.28300000000002</v>
+        <v>131.607</v>
       </c>
       <c r="J9">
-        <v>1518.1220000000001</v>
+        <v>868.49099999999999</v>
       </c>
       <c r="K9">
-        <v>208.352</v>
+        <v>8.1820000000000004</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,37 +1473,37 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1552.954</v>
+        <v>613.98500000000001</v>
       </c>
       <c r="O9">
-        <v>3740.82</v>
+        <v>2075.9369999999999</v>
       </c>
       <c r="P9">
-        <v>1991.316</v>
+        <v>877.02300000000002</v>
       </c>
       <c r="Q9">
-        <v>-123.547</v>
+        <v>-64.930000000000007</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37528</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>996.96199999999999</v>
+        <v>1370.1</v>
       </c>
       <c r="U9">
-        <v>466.23500000000001</v>
+        <v>119.86</v>
       </c>
       <c r="V9">
-        <v>291.74900000000002</v>
+        <v>32.783999999999999</v>
       </c>
       <c r="W9">
-        <v>-82.733000000000004</v>
+        <v>-43.887</v>
       </c>
       <c r="X9">
-        <v>-349.44099999999997</v>
+        <v>-70.281000000000006</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1392,42 +1512,42 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>176.71600000000001</v>
+        <v>123.065</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>149.87899999999999</v>
+        <v>130.32</v>
       </c>
       <c r="D10">
-        <v>1751.0350000000001</v>
+        <v>1156.028</v>
       </c>
       <c r="E10">
-        <v>461.38299999999998</v>
+        <v>370.976</v>
       </c>
       <c r="F10">
-        <v>757.65</v>
+        <v>452.58800000000002</v>
       </c>
       <c r="G10">
-        <v>2113.4850000000001</v>
+        <v>1263.6179999999999</v>
       </c>
       <c r="H10">
-        <v>4754.8389999999999</v>
+        <v>3480.5509999999999</v>
       </c>
       <c r="I10">
-        <v>441.97699999999998</v>
+        <v>124.50700000000001</v>
       </c>
       <c r="J10">
-        <v>1530.9670000000001</v>
+        <v>851.8</v>
       </c>
       <c r="K10">
-        <v>118.164</v>
+        <v>11.135</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,37 +1556,37 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1471.11</v>
+        <v>546.846</v>
       </c>
       <c r="O10">
-        <v>3706.4659999999999</v>
+        <v>2108.848</v>
       </c>
       <c r="P10">
-        <v>1906.865</v>
+        <v>879.92399999999998</v>
       </c>
       <c r="Q10">
-        <v>262.03699999999998</v>
+        <v>177.88300000000001</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>12100</v>
+        <v>13700</v>
       </c>
       <c r="T10">
-        <v>1048.373</v>
+        <v>1371.703</v>
       </c>
       <c r="U10">
-        <v>728.27200000000005</v>
+        <v>297.74299999999999</v>
       </c>
       <c r="V10">
-        <v>488.92</v>
+        <v>423.63499999999999</v>
       </c>
       <c r="W10">
-        <v>-91.379000000000005</v>
+        <v>-43.021999999999998</v>
       </c>
       <c r="X10">
-        <v>-155.95599999999999</v>
+        <v>-182.595</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1475,81 +1595,81 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>149.87899999999999</v>
+        <v>130.32</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37710</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>241.90600000000001</v>
+        <v>97.558000000000007</v>
       </c>
       <c r="D11">
-        <v>1827.4259999999999</v>
+        <v>953.16200000000003</v>
       </c>
       <c r="E11">
-        <v>516.59299999999996</v>
+        <v>296.00299999999999</v>
       </c>
       <c r="F11">
-        <v>849.46400000000006</v>
+        <v>356.28300000000002</v>
       </c>
       <c r="G11">
-        <v>2180.0210000000002</v>
+        <v>1095.174</v>
       </c>
       <c r="H11">
-        <v>4845.63</v>
+        <v>3312.5520000000001</v>
       </c>
       <c r="I11">
-        <v>412.31900000000002</v>
+        <v>121.729</v>
       </c>
       <c r="J11">
-        <v>1539.8</v>
+        <v>851.32899999999995</v>
       </c>
       <c r="K11">
-        <v>100.55200000000001</v>
+        <v>10.260999999999999</v>
       </c>
       <c r="L11">
-        <v>-18.52</v>
+        <v>-0.874</v>
       </c>
       <c r="M11">
-        <v>-4.1000000000000002E-2</v>
+        <v>-0.19900000000000001</v>
       </c>
       <c r="N11">
-        <v>1492.067</v>
+        <v>529.57000000000005</v>
       </c>
       <c r="O11">
-        <v>3733.0659999999998</v>
+        <v>2096.2350000000001</v>
       </c>
       <c r="P11">
-        <v>1893.279</v>
+        <v>878.9</v>
       </c>
       <c r="Q11">
-        <v>1.8240000000000001</v>
+        <v>-153.667</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37710</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>1112.5640000000001</v>
+        <v>1216.317</v>
       </c>
       <c r="U11">
-        <v>730.096</v>
+        <v>144.07599999999999</v>
       </c>
       <c r="V11">
-        <v>293.18</v>
+        <v>137.625</v>
       </c>
       <c r="W11">
-        <v>-91.603999999999999</v>
+        <v>-42.484000000000002</v>
       </c>
       <c r="X11">
-        <v>-198.065</v>
+        <v>-251.25800000000001</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1558,42 +1678,42 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>241.90600000000001</v>
+        <v>97.558000000000007</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37801</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>159.50399999999999</v>
+        <v>71.483999999999995</v>
       </c>
       <c r="D12">
-        <v>1508.5139999999999</v>
+        <v>849.11500000000001</v>
       </c>
       <c r="E12">
-        <v>366.28800000000001</v>
+        <v>230.38</v>
       </c>
       <c r="F12">
-        <v>718.59400000000005</v>
+        <v>333.745</v>
       </c>
       <c r="G12">
-        <v>1998.8869999999999</v>
+        <v>1079.0719999999999</v>
       </c>
       <c r="H12">
-        <v>4696.8680000000004</v>
+        <v>3298.34</v>
       </c>
       <c r="I12">
-        <v>413.14400000000001</v>
+        <v>134.29300000000001</v>
       </c>
       <c r="J12">
-        <v>1794.4929999999999</v>
+        <v>850.73800000000006</v>
       </c>
       <c r="K12">
-        <v>99.081000000000003</v>
+        <v>42.460999999999999</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,37 +1722,37 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1084.2059999999999</v>
+        <v>521.56600000000003</v>
       </c>
       <c r="O12">
-        <v>3575.1410000000001</v>
+        <v>2094.5140000000001</v>
       </c>
       <c r="P12">
-        <v>1896.89</v>
+        <v>903.67499999999995</v>
       </c>
       <c r="Q12">
-        <v>-161.73599999999999</v>
+        <v>-125.378</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37801</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>1121.7270000000001</v>
+        <v>1203.826</v>
       </c>
       <c r="U12">
-        <v>568.36</v>
+        <v>18.698</v>
       </c>
       <c r="V12">
-        <v>56.265999999999998</v>
+        <v>-12.061999999999999</v>
       </c>
       <c r="W12">
-        <v>-91.290999999999997</v>
+        <v>-41.74</v>
       </c>
       <c r="X12">
-        <v>-151.81100000000001</v>
+        <v>-66.408000000000001</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1641,42 +1761,42 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>159.50399999999999</v>
+        <v>71.483999999999995</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41546</v>
+        <v>37892</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>232.98500000000001</v>
+        <v>143.60400000000001</v>
       </c>
       <c r="D13">
-        <v>1853.886</v>
+        <v>1191.019</v>
       </c>
       <c r="E13">
-        <v>659.74</v>
+        <v>537.66999999999996</v>
       </c>
       <c r="F13">
-        <v>855.61300000000006</v>
+        <v>466.834</v>
       </c>
       <c r="G13">
-        <v>2375.694</v>
+        <v>1244.45</v>
       </c>
       <c r="H13">
-        <v>5077.9189999999999</v>
+        <v>3657.779</v>
       </c>
       <c r="I13">
-        <v>481.59300000000002</v>
+        <v>117.467</v>
       </c>
       <c r="J13">
-        <v>1796.2629999999999</v>
+        <v>966.28899999999999</v>
       </c>
       <c r="K13">
-        <v>107.06399999999999</v>
+        <v>231.018</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,37 +1805,37 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1260.768</v>
+        <v>754.93100000000004</v>
       </c>
       <c r="O13">
-        <v>3727.3440000000001</v>
+        <v>2428.8789999999999</v>
       </c>
       <c r="P13">
-        <v>1906.3869999999999</v>
+        <v>1207.7840000000001</v>
       </c>
       <c r="Q13">
-        <v>132.96799999999999</v>
+        <v>11.147</v>
       </c>
       <c r="R13">
-        <v>41546</v>
+        <v>37892</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>1350.575</v>
+        <v>1228.9000000000001</v>
       </c>
       <c r="U13">
-        <v>701.32799999999997</v>
+        <v>29.844999999999999</v>
       </c>
       <c r="V13">
-        <v>274.26799999999997</v>
+        <v>-36.837000000000003</v>
       </c>
       <c r="W13">
-        <v>-105.374</v>
+        <v>-50.322000000000003</v>
       </c>
       <c r="X13">
-        <v>-71.611000000000004</v>
+        <v>84.936000000000007</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1724,42 +1844,42 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>232.98500000000001</v>
+        <v>143.60400000000001</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>186.07499999999999</v>
+        <v>144.93799999999999</v>
       </c>
       <c r="D14">
-        <v>1956.2529999999999</v>
+        <v>1179.2550000000001</v>
       </c>
       <c r="E14">
-        <v>477.91199999999998</v>
+        <v>407.61200000000002</v>
       </c>
       <c r="F14">
-        <v>857.57899999999995</v>
+        <v>473.06299999999999</v>
       </c>
       <c r="G14">
-        <v>2487.3339999999998</v>
+        <v>1131.569</v>
       </c>
       <c r="H14">
-        <v>5357.4880000000003</v>
+        <v>3582.54</v>
       </c>
       <c r="I14">
-        <v>461.51400000000001</v>
+        <v>132.22200000000001</v>
       </c>
       <c r="J14">
-        <v>1795.1420000000001</v>
+        <v>968.49900000000002</v>
       </c>
       <c r="K14">
-        <v>165.96100000000001</v>
+        <v>12.032</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,37 +1888,37 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1408.0219999999999</v>
+        <v>585.80999999999995</v>
       </c>
       <c r="O14">
-        <v>3741.4360000000001</v>
+        <v>2302.674</v>
       </c>
       <c r="P14">
-        <v>1962.0170000000001</v>
+        <v>981.00800000000004</v>
       </c>
       <c r="Q14">
-        <v>417.18</v>
+        <v>84.947999999999993</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>12600</v>
+        <v>13100</v>
       </c>
       <c r="T14">
-        <v>1616.0519999999999</v>
+        <v>1279.866</v>
       </c>
       <c r="U14">
-        <v>1118.508</v>
+        <v>114.79300000000001</v>
       </c>
       <c r="V14">
-        <v>564.69100000000003</v>
+        <v>504.21699999999998</v>
       </c>
       <c r="W14">
-        <v>-105.532</v>
+        <v>-50.14</v>
       </c>
       <c r="X14">
-        <v>-25.102</v>
+        <v>-326.15800000000002</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1807,81 +1927,81 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>186.07499999999999</v>
+        <v>144.93799999999999</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41728</v>
+        <v>38081</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>252.495</v>
+        <v>107.14700000000001</v>
       </c>
       <c r="D15">
-        <v>1871.8130000000001</v>
+        <v>1013.0890000000001</v>
       </c>
       <c r="E15">
-        <v>620.49300000000005</v>
+        <v>273.44799999999998</v>
       </c>
       <c r="F15">
-        <v>871.59100000000001</v>
+        <v>387.45699999999999</v>
       </c>
       <c r="G15">
-        <v>2544.9740000000002</v>
+        <v>1184.44</v>
       </c>
       <c r="H15">
-        <v>5428.8459999999995</v>
+        <v>3640.9630000000002</v>
       </c>
       <c r="I15">
-        <v>465.16199999999998</v>
+        <v>153.29900000000001</v>
       </c>
       <c r="J15">
-        <v>1793.5</v>
+        <v>971.41800000000001</v>
       </c>
       <c r="K15">
-        <v>182.00700000000001</v>
+        <v>27.896000000000001</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-0.39300000000000002</v>
+        <v>-3.5999999999999997E-2</v>
       </c>
       <c r="N15">
-        <v>1444.4449999999999</v>
+        <v>594.31200000000001</v>
       </c>
       <c r="O15">
-        <v>3759.7829999999999</v>
+        <v>2321.1</v>
       </c>
       <c r="P15">
-        <v>1976.482</v>
+        <v>999.79300000000001</v>
       </c>
       <c r="Q15">
-        <v>-112.41200000000001</v>
+        <v>120.57899999999999</v>
       </c>
       <c r="R15">
-        <v>41728</v>
+        <v>38081</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>1669.0630000000001</v>
+        <v>1319.8630000000001</v>
       </c>
       <c r="U15">
-        <v>1006.096</v>
+        <v>235.37200000000001</v>
       </c>
       <c r="V15">
-        <v>203.75700000000001</v>
+        <v>237.23599999999999</v>
       </c>
       <c r="W15">
-        <v>-105.31</v>
+        <v>-50.081000000000003</v>
       </c>
       <c r="X15">
-        <v>-247.13300000000001</v>
+        <v>-51.128</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1890,42 +2010,42 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>252.495</v>
+        <v>107.14700000000001</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41819</v>
+        <v>38172</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>168.16800000000001</v>
+        <v>147.21700000000001</v>
       </c>
       <c r="D16">
-        <v>1578.35</v>
+        <v>893.68799999999999</v>
       </c>
       <c r="E16">
-        <v>423.64800000000002</v>
+        <v>256.65699999999998</v>
       </c>
       <c r="F16">
-        <v>717.46600000000001</v>
+        <v>360.48399999999998</v>
       </c>
       <c r="G16">
-        <v>2261.8090000000002</v>
+        <v>1175.421</v>
       </c>
       <c r="H16">
-        <v>5184.9690000000001</v>
+        <v>3607.8290000000002</v>
       </c>
       <c r="I16">
-        <v>464.93799999999999</v>
+        <v>160.822</v>
       </c>
       <c r="J16">
-        <v>1794.83</v>
+        <v>969.56100000000004</v>
       </c>
       <c r="K16">
-        <v>197.03100000000001</v>
+        <v>99.61</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2054,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1261.5650000000001</v>
+        <v>639.36900000000003</v>
       </c>
       <c r="O16">
-        <v>3576.4090000000001</v>
+        <v>2292.5459999999998</v>
       </c>
       <c r="P16">
-        <v>1992.8630000000001</v>
+        <v>1070.1500000000001</v>
       </c>
       <c r="Q16">
-        <v>-443.495</v>
+        <v>-215.89699999999999</v>
       </c>
       <c r="R16">
-        <v>41819</v>
+        <v>38172</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>1608.56</v>
+        <v>1315.2829999999999</v>
       </c>
       <c r="U16">
-        <v>562.601</v>
+        <v>19.475000000000001</v>
       </c>
       <c r="V16">
-        <v>-31.824999999999999</v>
+        <v>-91.686000000000007</v>
       </c>
       <c r="W16">
-        <v>-104.596</v>
+        <v>-49.776000000000003</v>
       </c>
       <c r="X16">
-        <v>-244.904</v>
+        <v>-74.816999999999993</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-97.215999999999994</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>168.16800000000001</v>
+        <v>147.21700000000001</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41910</v>
+        <v>38263</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>223.74100000000001</v>
+        <v>166.22900000000001</v>
       </c>
       <c r="D17">
-        <v>1961.578</v>
+        <v>1254.508</v>
       </c>
       <c r="E17">
-        <v>786.36599999999999</v>
+        <v>484.197</v>
       </c>
       <c r="F17">
-        <v>860.13699999999994</v>
+        <v>498.1</v>
       </c>
       <c r="G17">
-        <v>2532.5720000000001</v>
+        <v>1350.174</v>
       </c>
       <c r="H17">
-        <v>5916.5529999999999</v>
+        <v>3786.723</v>
       </c>
       <c r="I17">
-        <v>522.78700000000003</v>
+        <v>154.88999999999999</v>
       </c>
       <c r="J17">
-        <v>1562.106</v>
+        <v>968.95600000000002</v>
       </c>
       <c r="K17">
-        <v>649.19500000000005</v>
+        <v>562.07799999999997</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,81 +2137,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2192.2190000000001</v>
+        <v>1162.27</v>
       </c>
       <c r="O17">
-        <v>4308.6930000000002</v>
+        <v>2846.2139999999999</v>
       </c>
       <c r="P17">
-        <v>2462.1819999999998</v>
+        <v>1532.0129999999999</v>
       </c>
       <c r="Q17">
-        <v>-85.513000000000005</v>
+        <v>67.914000000000001</v>
       </c>
       <c r="R17">
-        <v>41910</v>
+        <v>38263</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>1607.86</v>
+        <v>940.50900000000001</v>
       </c>
       <c r="U17">
-        <v>477.08800000000002</v>
+        <v>87.388999999999996</v>
       </c>
       <c r="V17">
-        <v>215.501</v>
+        <v>217.86699999999999</v>
       </c>
       <c r="W17">
-        <v>-115.25</v>
+        <v>-52.912999999999997</v>
       </c>
       <c r="X17">
-        <v>155.55099999999999</v>
+        <v>-109.196</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-1.093</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>223.74100000000001</v>
+        <v>166.22900000000001</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>202.50800000000001</v>
+        <v>157.30799999999999</v>
       </c>
       <c r="D18">
-        <v>2010.027</v>
+        <v>1267.963</v>
       </c>
       <c r="E18">
-        <v>596.94000000000005</v>
+        <v>408.93</v>
       </c>
       <c r="F18">
-        <v>888.59400000000005</v>
+        <v>502.77</v>
       </c>
       <c r="G18">
-        <v>2247.047</v>
+        <v>1197.694</v>
       </c>
       <c r="H18">
-        <v>5622.87</v>
+        <v>3812.7840000000001</v>
       </c>
       <c r="I18">
-        <v>482.017</v>
+        <v>148.68600000000001</v>
       </c>
       <c r="J18">
-        <v>1542.317</v>
+        <v>690.60199999999998</v>
       </c>
       <c r="K18">
-        <v>384.69600000000003</v>
+        <v>343.27699999999999</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,120 +2220,120 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1935.6469999999999</v>
+        <v>1282.471</v>
       </c>
       <c r="O18">
-        <v>4103.34</v>
+        <v>2675.6819999999998</v>
       </c>
       <c r="P18">
-        <v>2177.8180000000002</v>
+        <v>1312.922</v>
       </c>
       <c r="Q18">
-        <v>-102.23399999999999</v>
+        <v>-32.552</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>20800</v>
+        <v>13700</v>
       </c>
       <c r="T18">
-        <v>1519.53</v>
+        <v>1137.1020000000001</v>
       </c>
       <c r="U18">
-        <v>374.85399999999998</v>
+        <v>54.837000000000003</v>
       </c>
       <c r="V18">
-        <v>456.94400000000002</v>
+        <v>424.33699999999999</v>
       </c>
       <c r="W18">
-        <v>-115.258</v>
+        <v>-52.976999999999997</v>
       </c>
       <c r="X18">
-        <v>-382.81599999999997</v>
+        <v>-249.82400000000001</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>1.1779999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>202.50800000000001</v>
+        <v>157.30799999999999</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42099</v>
+        <v>38445</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>244.73699999999999</v>
+        <v>113.02200000000001</v>
       </c>
       <c r="D19">
-        <v>1937.8</v>
+        <v>1126.414</v>
       </c>
       <c r="E19">
-        <v>606.68700000000001</v>
+        <v>289.99099999999999</v>
       </c>
       <c r="F19">
-        <v>902.32500000000005</v>
+        <v>430.83</v>
       </c>
       <c r="G19">
-        <v>2108.0990000000002</v>
+        <v>1120.0650000000001</v>
       </c>
       <c r="H19">
-        <v>5757.4620000000004</v>
+        <v>3748.7739999999999</v>
       </c>
       <c r="I19">
-        <v>449.149</v>
+        <v>167.84800000000001</v>
       </c>
       <c r="J19">
-        <v>1618.124</v>
+        <v>690.31200000000001</v>
       </c>
       <c r="K19">
-        <v>649.10299999999995</v>
+        <v>429.72399999999999</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-0.32800000000000001</v>
+        <v>-1.0660000000000001</v>
       </c>
       <c r="N19">
-        <v>2175.13</v>
+        <v>1341.145</v>
       </c>
       <c r="O19">
-        <v>4412.9459999999999</v>
+        <v>2778.0520000000001</v>
       </c>
       <c r="P19">
-        <v>2518.011</v>
+        <v>1397.72</v>
       </c>
       <c r="Q19">
-        <v>-69.164000000000001</v>
+        <v>-36.777000000000001</v>
       </c>
       <c r="R19">
-        <v>42099</v>
+        <v>38445</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>1344.5160000000001</v>
+        <v>970.72199999999998</v>
       </c>
       <c r="U19">
-        <v>305.69</v>
+        <v>18.059999999999999</v>
       </c>
       <c r="V19">
-        <v>259.233</v>
+        <v>161.95599999999999</v>
       </c>
       <c r="W19">
-        <v>-114.381</v>
+        <v>-52.76</v>
       </c>
       <c r="X19">
-        <v>-76.501000000000005</v>
+        <v>-166.495</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2222,42 +2342,42 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>244.73699999999999</v>
+        <v>113.02200000000001</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42190</v>
+        <v>38536</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>-99.941000000000003</v>
+        <v>93.222999999999999</v>
       </c>
       <c r="D20">
-        <v>1578.825</v>
+        <v>988.447</v>
       </c>
       <c r="E20">
-        <v>443.452</v>
+        <v>296.98</v>
       </c>
       <c r="F20">
-        <v>736.91</v>
+        <v>393.29500000000002</v>
       </c>
       <c r="G20">
-        <v>2007.4469999999999</v>
+        <v>1333.7840000000001</v>
       </c>
       <c r="H20">
-        <v>5449.33</v>
+        <v>4031.7330000000002</v>
       </c>
       <c r="I20">
-        <v>423.37900000000002</v>
+        <v>173.636</v>
       </c>
       <c r="J20">
-        <v>1568.9010000000001</v>
+        <v>690.06</v>
       </c>
       <c r="K20">
-        <v>615.702</v>
+        <v>682.16399999999999</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2018.2719999999999</v>
+        <v>1551.7460000000001</v>
       </c>
       <c r="O20">
-        <v>4211.0619999999999</v>
+        <v>3003.768</v>
       </c>
       <c r="P20">
-        <v>2435.328</v>
+        <v>1649.559</v>
       </c>
       <c r="Q20">
-        <v>-3.0310000000000001</v>
+        <v>6.6520000000000001</v>
       </c>
       <c r="R20">
-        <v>42190</v>
+        <v>38536</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>1238.268</v>
+        <v>1027.9649999999999</v>
       </c>
       <c r="U20">
-        <v>302.65899999999999</v>
+        <v>24.712</v>
       </c>
       <c r="V20">
-        <v>227.08199999999999</v>
+        <v>-142.41200000000001</v>
       </c>
       <c r="W20">
-        <v>-114.581</v>
+        <v>-52.609000000000002</v>
       </c>
       <c r="X20">
-        <v>-139.053</v>
+        <v>217.453</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-1.865</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>-99.941000000000003</v>
+        <v>93.222999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42281</v>
+        <v>38627</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>154.77099999999999</v>
+        <v>114.152</v>
       </c>
       <c r="D21">
-        <v>1960.779</v>
+        <v>1368.24</v>
       </c>
       <c r="E21">
-        <v>760.78899999999999</v>
+        <v>642.70100000000002</v>
       </c>
       <c r="F21">
-        <v>900.62800000000004</v>
+        <v>534.90099999999995</v>
       </c>
       <c r="G21">
-        <v>2209.33</v>
+        <v>1606.203</v>
       </c>
       <c r="H21">
-        <v>5630.62</v>
+        <v>4510.4430000000002</v>
       </c>
       <c r="I21">
-        <v>448.59899999999999</v>
+        <v>203.15100000000001</v>
       </c>
       <c r="J21">
-        <v>1830.1859999999999</v>
+        <v>943.10400000000004</v>
       </c>
       <c r="K21">
-        <v>687.98099999999999</v>
+        <v>834.95399999999995</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2235.241</v>
+        <v>1750.779</v>
       </c>
       <c r="O21">
-        <v>4693.4939999999997</v>
+        <v>3554.51</v>
       </c>
       <c r="P21">
-        <v>2768.5880000000002</v>
+        <v>1995.625</v>
       </c>
       <c r="Q21">
-        <v>41.253999999999998</v>
+        <v>13.186</v>
       </c>
       <c r="R21">
-        <v>42281</v>
+        <v>38627</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>937.12599999999998</v>
+        <v>955.93299999999999</v>
       </c>
       <c r="U21">
-        <v>343.91300000000001</v>
+        <v>37.898000000000003</v>
       </c>
       <c r="V21">
-        <v>108.77</v>
+        <v>-24.84</v>
       </c>
       <c r="W21">
-        <v>-124.108</v>
+        <v>-58.351999999999997</v>
       </c>
       <c r="X21">
-        <v>-71.837000000000003</v>
+        <v>133.22999999999999</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>93.406000000000006</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>154.77099999999999</v>
+        <v>114.152</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>213.38399999999999</v>
+        <v>168.15</v>
       </c>
       <c r="D22">
-        <v>1909.222</v>
+        <v>1336.7260000000001</v>
       </c>
       <c r="E22">
-        <v>599.07299999999998</v>
+        <v>507.11900000000003</v>
       </c>
       <c r="F22">
-        <v>858.92100000000005</v>
+        <v>526.57799999999997</v>
       </c>
       <c r="G22">
-        <v>1848.598</v>
+        <v>1376.403</v>
       </c>
       <c r="H22">
-        <v>5344.3710000000001</v>
+        <v>4262.6989999999996</v>
       </c>
       <c r="I22">
-        <v>474.26600000000002</v>
+        <v>167.81200000000001</v>
       </c>
       <c r="J22">
-        <v>1597.39</v>
+        <v>942.755</v>
       </c>
       <c r="K22">
-        <v>363.51299999999998</v>
+        <v>819.05899999999997</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,164 +2552,164 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2217.9119999999998</v>
+        <v>1490.3820000000001</v>
       </c>
       <c r="O22">
-        <v>4296.9089999999997</v>
+        <v>3246.319</v>
       </c>
       <c r="P22">
-        <v>2460.826</v>
+        <v>1761.87</v>
       </c>
       <c r="Q22">
-        <v>2.6160000000000001</v>
+        <v>29.285</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>19060</v>
+        <v>11610</v>
       </c>
       <c r="T22">
-        <v>1047.462</v>
+        <v>1016.38</v>
       </c>
       <c r="U22">
-        <v>346.529</v>
+        <v>67.183000000000007</v>
       </c>
       <c r="V22">
-        <v>619.37099999999998</v>
+        <v>467.05799999999999</v>
       </c>
       <c r="W22">
-        <v>-123.062</v>
+        <v>-57.514000000000003</v>
       </c>
       <c r="X22">
-        <v>-467.77100000000002</v>
+        <v>-394.93799999999999</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-26.945</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>213.38399999999999</v>
+        <v>168.15</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42463</v>
+        <v>38809</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>229.83199999999999</v>
+        <v>122.471</v>
       </c>
       <c r="D23">
-        <v>1828.8119999999999</v>
+        <v>1139.5070000000001</v>
       </c>
       <c r="E23">
-        <v>544.02700000000004</v>
+        <v>414.80700000000002</v>
       </c>
       <c r="F23">
-        <v>816.88900000000001</v>
+        <v>430.54300000000001</v>
       </c>
       <c r="G23">
-        <v>1772.9179999999999</v>
+        <v>1359.1389999999999</v>
       </c>
       <c r="H23">
-        <v>5305.84</v>
+        <v>4226.5320000000002</v>
       </c>
       <c r="I23">
-        <v>436.34300000000002</v>
+        <v>177.90700000000001</v>
       </c>
       <c r="J23">
-        <v>1571.3879999999999</v>
+        <v>752.78099999999995</v>
       </c>
       <c r="K23">
-        <v>520.56399999999996</v>
+        <v>898.66899999999998</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>-5.8000000000000003E-2</v>
       </c>
       <c r="N23">
-        <v>2336.9720000000002</v>
+        <v>1735.9680000000001</v>
       </c>
       <c r="O23">
-        <v>4426.4870000000001</v>
+        <v>3294.7489999999998</v>
       </c>
       <c r="P23">
-        <v>2591.9679999999998</v>
+        <v>1841.1120000000001</v>
       </c>
       <c r="Q23">
-        <v>-60.570999999999998</v>
+        <v>-23.242999999999999</v>
       </c>
       <c r="R23">
-        <v>42463</v>
+        <v>38809</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>879.35299999999995</v>
+        <v>931.78300000000002</v>
       </c>
       <c r="U23">
-        <v>285.95800000000003</v>
+        <v>43.94</v>
       </c>
       <c r="V23">
-        <v>269.46899999999999</v>
+        <v>165.99</v>
       </c>
       <c r="W23">
-        <v>-122.367</v>
+        <v>-56.936</v>
       </c>
       <c r="X23">
-        <v>-283.589</v>
+        <v>-150.97499999999999</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-9.6720000000000006</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>229.83199999999999</v>
+        <v>122.471</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42554</v>
+        <v>38900</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>145.95599999999999</v>
+        <v>97.897000000000006</v>
       </c>
       <c r="D24">
-        <v>1637.671</v>
+        <v>1051.912</v>
       </c>
       <c r="E24">
-        <v>483.54500000000002</v>
+        <v>369.43599999999998</v>
       </c>
       <c r="F24">
-        <v>781.36300000000006</v>
+        <v>406.23500000000001</v>
       </c>
       <c r="G24">
-        <v>1807.5989999999999</v>
+        <v>1445.049</v>
       </c>
       <c r="H24">
-        <v>5567.384</v>
+        <v>4312.26</v>
       </c>
       <c r="I24">
-        <v>455.22500000000002</v>
+        <v>156.423</v>
       </c>
       <c r="J24">
-        <v>1571.1790000000001</v>
+        <v>752.654</v>
       </c>
       <c r="K24">
-        <v>997.12</v>
+        <v>1134.327</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2671.4459999999999</v>
+        <v>1898.338</v>
       </c>
       <c r="O24">
-        <v>4792.723</v>
+        <v>3461.4389999999999</v>
       </c>
       <c r="P24">
-        <v>3068.377</v>
+        <v>2076.4029999999998</v>
       </c>
       <c r="Q24">
-        <v>-35.773000000000003</v>
+        <v>-20.454999999999998</v>
       </c>
       <c r="R24">
-        <v>42554</v>
+        <v>38900</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>774.66099999999994</v>
+        <v>850.82100000000003</v>
       </c>
       <c r="U24">
-        <v>250.185</v>
+        <v>23.484999999999999</v>
       </c>
       <c r="V24">
-        <v>99.241</v>
+        <v>1.361</v>
       </c>
       <c r="W24">
-        <v>-120.77200000000001</v>
+        <v>-56.231999999999999</v>
       </c>
       <c r="X24">
-        <v>221.376</v>
+        <v>27.263000000000002</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-7.0910000000000002</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>145.95599999999999</v>
+        <v>97.897000000000006</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42645</v>
+        <v>38991</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>227.40299999999999</v>
+        <v>185.12100000000001</v>
       </c>
       <c r="D25">
-        <v>2003.454</v>
+        <v>1416.202</v>
       </c>
       <c r="E25">
-        <v>759.61900000000003</v>
+        <v>720.86099999999999</v>
       </c>
       <c r="F25">
-        <v>875.31799999999998</v>
+        <v>545.46900000000005</v>
       </c>
       <c r="G25">
-        <v>2130.5169999999998</v>
+        <v>1700.4469999999999</v>
       </c>
       <c r="H25">
-        <v>5845.4129999999996</v>
+        <v>4559.4620000000004</v>
       </c>
       <c r="I25">
-        <v>458.02800000000002</v>
+        <v>163.959</v>
       </c>
       <c r="J25">
-        <v>2362.4659999999999</v>
+        <v>1255.162</v>
       </c>
       <c r="K25">
-        <v>612.38300000000004</v>
+        <v>840.029</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2017.0350000000001</v>
+        <v>1656.808</v>
       </c>
       <c r="O25">
-        <v>4903.3410000000003</v>
+        <v>3729.143</v>
       </c>
       <c r="P25">
-        <v>3224.873</v>
+        <v>2284.1959999999999</v>
       </c>
       <c r="Q25">
-        <v>83.147999999999996</v>
+        <v>24.15</v>
       </c>
       <c r="R25">
-        <v>42645</v>
+        <v>38991</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>942.072</v>
+        <v>830.31899999999996</v>
       </c>
       <c r="U25">
-        <v>333.33300000000003</v>
+        <v>47.634999999999998</v>
       </c>
       <c r="V25">
-        <v>82.05</v>
+        <v>59.002000000000002</v>
       </c>
       <c r="W25">
-        <v>-128.56700000000001</v>
+        <v>-61.277999999999999</v>
       </c>
       <c r="X25">
-        <v>83.754000000000005</v>
+        <v>7.7480000000000002</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-18.632000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>227.40299999999999</v>
+        <v>185.12100000000001</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>116.85299999999999</v>
+        <v>153.572</v>
       </c>
       <c r="D26">
-        <v>1970.2439999999999</v>
+        <v>1336.6089999999999</v>
       </c>
       <c r="E26">
-        <v>581.38099999999997</v>
+        <v>522.673</v>
       </c>
       <c r="F26">
-        <v>742.42700000000002</v>
+        <v>482.06599999999997</v>
       </c>
       <c r="G26">
-        <v>1816.778</v>
+        <v>1417.8119999999999</v>
       </c>
       <c r="H26">
-        <v>5524.3329999999996</v>
+        <v>4157.5649999999996</v>
       </c>
       <c r="I26">
-        <v>522.53599999999994</v>
+        <v>155.517</v>
       </c>
       <c r="J26">
-        <v>2347.4549999999999</v>
+        <v>1248.1279999999999</v>
       </c>
       <c r="K26">
-        <v>632.471</v>
+        <v>655.23299999999995</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,164 +2884,164 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>1909.443</v>
+        <v>1453.538</v>
       </c>
       <c r="O26">
-        <v>4696.6459999999997</v>
+        <v>3474.1419999999998</v>
       </c>
       <c r="P26">
-        <v>2980.1689999999999</v>
+        <v>2092.1260000000002</v>
       </c>
       <c r="Q26">
-        <v>-36.366</v>
+        <v>49.506</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>16300</v>
+        <v>12800</v>
       </c>
       <c r="T26">
-        <v>827.68700000000001</v>
+        <v>683.423</v>
       </c>
       <c r="U26">
-        <v>296.96699999999998</v>
+        <v>97.141000000000005</v>
       </c>
       <c r="V26">
-        <v>562.66800000000001</v>
+        <v>496.84</v>
       </c>
       <c r="W26">
-        <v>-127.76900000000001</v>
+        <v>-60.683</v>
       </c>
       <c r="X26">
-        <v>-485.93700000000001</v>
+        <v>-361.75900000000001</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-8.86</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>116.85299999999999</v>
+        <v>153.572</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42827</v>
+        <v>39173</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>125.044</v>
+        <v>93.472999999999999</v>
       </c>
       <c r="D27">
-        <v>1879.6780000000001</v>
+        <v>1153.1089999999999</v>
       </c>
       <c r="E27">
-        <v>595.779</v>
+        <v>405.90800000000002</v>
       </c>
       <c r="F27">
-        <v>909.84199999999998</v>
+        <v>423.89</v>
       </c>
       <c r="G27">
-        <v>1873.8610000000001</v>
+        <v>1280.2449999999999</v>
       </c>
       <c r="H27">
-        <v>5342.3850000000002</v>
+        <v>4004.5329999999999</v>
       </c>
       <c r="I27">
-        <v>499.149</v>
+        <v>198.14699999999999</v>
       </c>
       <c r="J27">
-        <v>2350.9409999999998</v>
+        <v>1248.1369999999999</v>
       </c>
       <c r="K27">
-        <v>487.48700000000002</v>
+        <v>722.67</v>
       </c>
       <c r="L27">
-        <v>-146.60400000000001</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>-9.4E-2</v>
+        <v>-188.74199999999999</v>
       </c>
       <c r="N27">
-        <v>1710.9169999999999</v>
+        <v>1365.076</v>
       </c>
       <c r="O27">
-        <v>4496.9319999999998</v>
+        <v>3383.8319999999999</v>
       </c>
       <c r="P27">
-        <v>2838.5859999999998</v>
+        <v>1970.7339999999999</v>
       </c>
       <c r="Q27">
-        <v>-61.936</v>
+        <v>-36.658000000000001</v>
       </c>
       <c r="R27">
-        <v>42827</v>
+        <v>39173</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>845.45299999999997</v>
+        <v>620.70100000000002</v>
       </c>
       <c r="U27">
-        <v>235.03100000000001</v>
+        <v>60.482999999999997</v>
       </c>
       <c r="V27">
-        <v>234.46199999999999</v>
+        <v>303.52</v>
       </c>
       <c r="W27">
-        <v>-128.017</v>
+        <v>-60.7</v>
       </c>
       <c r="X27">
-        <v>-256.87400000000002</v>
+        <v>-298.42399999999998</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-7.9480000000000004</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>125.044</v>
+        <v>93.472999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42918</v>
+        <v>39264</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>203.501</v>
+        <v>3.5539999999999998</v>
       </c>
       <c r="D28">
-        <v>1662.991</v>
+        <v>1051.9159999999999</v>
       </c>
       <c r="E28">
-        <v>417.45699999999999</v>
+        <v>378.178</v>
       </c>
       <c r="F28">
-        <v>771.61900000000003</v>
+        <v>370.745</v>
       </c>
       <c r="G28">
-        <v>1911.529</v>
+        <v>1425.64</v>
       </c>
       <c r="H28">
-        <v>5380.2280000000001</v>
+        <v>4267.2359999999999</v>
       </c>
       <c r="I28">
-        <v>471.54500000000002</v>
+        <v>248.09899999999999</v>
       </c>
       <c r="J28">
-        <v>2349.7559999999999</v>
+        <v>1272.5039999999999</v>
       </c>
       <c r="K28">
-        <v>621.96500000000003</v>
+        <v>926.26199999999994</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +3050,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1742.2049999999999</v>
+        <v>1615.9590000000001</v>
       </c>
       <c r="O28">
-        <v>4510.2460000000001</v>
+        <v>3679.5569999999998</v>
       </c>
       <c r="P28">
-        <v>2971.81</v>
+        <v>2213.4349999999999</v>
       </c>
       <c r="Q28">
-        <v>-20.969000000000001</v>
+        <v>-21.661000000000001</v>
       </c>
       <c r="R28">
-        <v>42918</v>
+        <v>39264</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>869.98199999999997</v>
+        <v>587.67899999999997</v>
       </c>
       <c r="U28">
-        <v>214.06200000000001</v>
+        <v>38.822000000000003</v>
       </c>
       <c r="V28">
-        <v>101.27200000000001</v>
+        <v>-10.015000000000001</v>
       </c>
       <c r="W28">
-        <v>-128.11099999999999</v>
+        <v>-60.097999999999999</v>
       </c>
       <c r="X28">
-        <v>-58.265999999999998</v>
+        <v>106.753</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-14.467000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>203.501</v>
+        <v>3.5539999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43009</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>273.303</v>
+        <v>62.783999999999999</v>
       </c>
       <c r="D29">
-        <v>2033.1210000000001</v>
+        <v>1399.4690000000001</v>
       </c>
       <c r="E29">
-        <v>742.83199999999999</v>
+        <v>638.31200000000001</v>
       </c>
       <c r="F29">
-        <v>943.149</v>
+        <v>508.07499999999999</v>
       </c>
       <c r="G29">
-        <v>2214.4540000000002</v>
+        <v>1658.7650000000001</v>
       </c>
       <c r="H29">
-        <v>5655.4769999999999</v>
+        <v>4455.5770000000002</v>
       </c>
       <c r="I29">
-        <v>529.44200000000001</v>
+        <v>252.27600000000001</v>
       </c>
       <c r="J29">
-        <v>2054.1320000000001</v>
+        <v>1271.6579999999999</v>
       </c>
       <c r="K29">
-        <v>815.58799999999997</v>
+        <v>1086.098</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3133,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>2337.67</v>
+        <v>1840.6379999999999</v>
       </c>
       <c r="O29">
-        <v>4816.5010000000002</v>
+        <v>3899.944</v>
       </c>
       <c r="P29">
-        <v>3169.8159999999998</v>
+        <v>2372.7640000000001</v>
       </c>
       <c r="Q29">
-        <v>60.994</v>
+        <v>2.7509999999999999</v>
       </c>
       <c r="R29">
-        <v>43009</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>838.976</v>
+        <v>555.63300000000004</v>
       </c>
       <c r="U29">
-        <v>275.05599999999998</v>
+        <v>41.573</v>
       </c>
       <c r="V29">
-        <v>290.16500000000002</v>
+        <v>21.779</v>
       </c>
       <c r="W29">
-        <v>-135.71700000000001</v>
+        <v>-65.733000000000004</v>
       </c>
       <c r="X29">
-        <v>-150.57900000000001</v>
+        <v>45.579000000000001</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-17.562000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA29">
-        <v>273.303</v>
+        <v>62.783999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>181.13300000000001</v>
+        <v>54.343000000000004</v>
       </c>
       <c r="D30">
-        <v>1939.636</v>
+        <v>1342.222</v>
       </c>
       <c r="E30">
-        <v>588.26199999999994</v>
+        <v>487.28500000000003</v>
       </c>
       <c r="F30">
-        <v>835.91300000000001</v>
+        <v>451.94900000000001</v>
       </c>
       <c r="G30">
-        <v>2001.91</v>
+        <v>1426.5740000000001</v>
       </c>
       <c r="H30">
-        <v>5553.7259999999997</v>
+        <v>4247.1130000000003</v>
       </c>
       <c r="I30">
-        <v>523.22900000000004</v>
+        <v>223.01900000000001</v>
       </c>
       <c r="J30">
-        <v>1961.829</v>
+        <v>1279.9649999999999</v>
       </c>
       <c r="K30">
-        <v>559.35900000000004</v>
+        <v>850.28800000000001</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,164 +3216,164 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>2076.5430000000001</v>
+        <v>1618.77</v>
       </c>
       <c r="O30">
-        <v>4622.1610000000001</v>
+        <v>3623.5929999999998</v>
       </c>
       <c r="P30">
-        <v>2920.48</v>
+        <v>2136.357</v>
       </c>
       <c r="Q30">
-        <v>105.123</v>
+        <v>87.625</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>15360</v>
+        <v>11000</v>
       </c>
       <c r="T30">
-        <v>931.56500000000005</v>
+        <v>623.52</v>
       </c>
       <c r="U30">
-        <v>380.17899999999997</v>
+        <v>129.19800000000001</v>
       </c>
       <c r="V30">
-        <v>623.61599999999999</v>
+        <v>463.55200000000002</v>
       </c>
       <c r="W30">
-        <v>-134.42699999999999</v>
+        <v>-65.731999999999999</v>
       </c>
       <c r="X30">
-        <v>-378.04899999999998</v>
+        <v>-296.334</v>
       </c>
       <c r="Y30">
-        <v>99.194000000000003</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>-38.621000000000002</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>181.13300000000001</v>
+        <v>54.343000000000004</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43191</v>
+        <v>39537</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>350.20299999999997</v>
+        <v>63.244999999999997</v>
       </c>
       <c r="D31">
-        <v>1971.9590000000001</v>
+        <v>1160.3420000000001</v>
       </c>
       <c r="E31">
-        <v>614.29499999999996</v>
+        <v>298.66800000000001</v>
       </c>
       <c r="F31">
-        <v>981.23599999999999</v>
+        <v>401.60599999999999</v>
       </c>
       <c r="G31">
-        <v>2270.4960000000001</v>
+        <v>1262.6030000000001</v>
       </c>
       <c r="H31">
-        <v>7332.7979999999998</v>
+        <v>4067.0169999999998</v>
       </c>
       <c r="I31">
-        <v>519.98800000000006</v>
+        <v>231.982</v>
       </c>
       <c r="J31">
-        <v>2059.9340000000002</v>
+        <v>1528.691</v>
       </c>
       <c r="K31">
-        <v>2246.4850000000001</v>
+        <v>473.31799999999998</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>-376.97</v>
       </c>
       <c r="M31">
-        <v>-607.92200000000003</v>
+        <v>-4.8000000000000001E-2</v>
       </c>
       <c r="N31">
-        <v>3705.5070000000001</v>
+        <v>1200.99</v>
       </c>
       <c r="O31">
-        <v>6343.143</v>
+        <v>3431.8910000000001</v>
       </c>
       <c r="P31">
-        <v>4609.4809999999998</v>
+        <v>2007.7280000000001</v>
       </c>
       <c r="Q31">
-        <v>96.254999999999995</v>
+        <v>23.677</v>
       </c>
       <c r="R31">
-        <v>43191</v>
+        <v>39537</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>989.65499999999997</v>
+        <v>635.12599999999998</v>
       </c>
       <c r="U31">
-        <v>476.43400000000003</v>
+        <v>152.875</v>
       </c>
       <c r="V31">
-        <v>352.05700000000002</v>
+        <v>258.02800000000002</v>
       </c>
       <c r="W31">
-        <v>-134.30000000000001</v>
+        <v>-65.75</v>
       </c>
       <c r="X31">
-        <v>725.90499999999997</v>
+        <v>-209.84700000000001</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-6.2809999999999997</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>350.20299999999997</v>
+        <v>63.244999999999997</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43282</v>
+        <v>39628</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>226.85499999999999</v>
+        <v>41.466999999999999</v>
       </c>
       <c r="D32">
-        <v>1751.615</v>
+        <v>1105.4369999999999</v>
       </c>
       <c r="E32">
-        <v>501.863</v>
+        <v>302.952</v>
       </c>
       <c r="F32">
-        <v>800.76700000000005</v>
+        <v>397.53800000000001</v>
       </c>
       <c r="G32">
-        <v>2365.105</v>
+        <v>1279.0170000000001</v>
       </c>
       <c r="H32">
-        <v>7405.6530000000002</v>
+        <v>4078.692</v>
       </c>
       <c r="I32">
-        <v>496.86500000000001</v>
+        <v>281.15199999999999</v>
       </c>
       <c r="J32">
-        <v>3249.6889999999999</v>
+        <v>1514.029</v>
       </c>
       <c r="K32">
-        <v>1046.9269999999999</v>
+        <v>419.37200000000001</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>2514.2570000000001</v>
+        <v>1205.105</v>
       </c>
       <c r="O32">
-        <v>6341.8360000000002</v>
+        <v>3428.7240000000002</v>
       </c>
       <c r="P32">
-        <v>4601.0169999999998</v>
+        <v>1950.2750000000001</v>
       </c>
       <c r="Q32">
-        <v>-9.0820000000000007</v>
+        <v>-107.44799999999999</v>
       </c>
       <c r="R32">
-        <v>43282</v>
+        <v>39628</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>1063.817</v>
+        <v>649.96799999999996</v>
       </c>
       <c r="U32">
-        <v>467.35199999999998</v>
+        <v>45.427</v>
       </c>
       <c r="V32">
-        <v>250.82499999999999</v>
+        <v>62.043999999999997</v>
       </c>
       <c r="W32">
-        <v>-133.57900000000001</v>
+        <v>-65.730999999999995</v>
       </c>
       <c r="X32">
-        <v>-172.74600000000001</v>
+        <v>-126.285</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-22.745999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA32">
-        <v>226.85499999999999</v>
+        <v>41.466999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39719</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>263.71300000000002</v>
+        <v>124.538</v>
       </c>
       <c r="D33">
-        <v>2079.5929999999998</v>
+        <v>1489.6089999999999</v>
       </c>
       <c r="E33">
-        <v>814.923</v>
+        <v>614.39200000000005</v>
       </c>
       <c r="F33">
-        <v>868.05799999999999</v>
+        <v>521.19399999999996</v>
       </c>
       <c r="G33">
-        <v>2794.0459999999998</v>
+        <v>1650.655</v>
       </c>
       <c r="H33">
-        <v>7836.1890000000003</v>
+        <v>4431.3789999999999</v>
       </c>
       <c r="I33">
-        <v>581.48099999999999</v>
+        <v>317.61200000000002</v>
       </c>
       <c r="J33">
-        <v>3253.8789999999999</v>
+        <v>1510.8309999999999</v>
       </c>
       <c r="K33">
-        <v>1449.2260000000001</v>
+        <v>712.71299999999997</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3465,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>2758.826</v>
+        <v>1563.492</v>
       </c>
       <c r="O33">
-        <v>6586.9170000000004</v>
+        <v>3779.25</v>
       </c>
       <c r="P33">
-        <v>4706.22</v>
+        <v>2240.1280000000002</v>
       </c>
       <c r="Q33">
-        <v>356.435</v>
+        <v>90.204999999999998</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39719</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>1249.2719999999999</v>
+        <v>652.12900000000002</v>
       </c>
       <c r="U33">
-        <v>823.78700000000003</v>
+        <v>135.63200000000001</v>
       </c>
       <c r="V33">
-        <v>289.97899999999998</v>
+        <v>-71.480999999999995</v>
       </c>
       <c r="W33">
-        <v>-147.29900000000001</v>
+        <v>-65.736999999999995</v>
       </c>
       <c r="X33">
-        <v>-24.143000000000001</v>
+        <v>225.953</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-5.1429999999999998</v>
+        <v>0</v>
       </c>
       <c r="AA33">
-        <v>263.71300000000002</v>
+        <v>124.538</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>336.791</v>
+        <v>82.155000000000001</v>
       </c>
       <c r="D34">
-        <v>1987.902</v>
+        <v>1377.38</v>
       </c>
       <c r="E34">
-        <v>594.14499999999998</v>
+        <v>455.15300000000002</v>
       </c>
       <c r="F34">
-        <v>941.57399999999996</v>
+        <v>515.14700000000005</v>
       </c>
       <c r="G34">
-        <v>2239.181</v>
+        <v>1344.9449999999999</v>
       </c>
       <c r="H34">
-        <v>7703.02</v>
+        <v>3634.7190000000001</v>
       </c>
       <c r="I34">
-        <v>502.31400000000002</v>
+        <v>249.45400000000001</v>
       </c>
       <c r="J34">
-        <v>3152.3</v>
+        <v>1505.954</v>
       </c>
       <c r="K34">
-        <v>1197.9290000000001</v>
+        <v>483.12</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,164 +3548,164 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>2418.5659999999998</v>
+        <v>1270.212</v>
       </c>
       <c r="O34">
-        <v>6295.7539999999999</v>
+        <v>3284.7750000000001</v>
       </c>
       <c r="P34">
-        <v>4457.5959999999995</v>
+        <v>2007.4580000000001</v>
       </c>
       <c r="Q34">
-        <v>-235.78899999999999</v>
+        <v>-98.528999999999996</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>14930</v>
+        <v>12800</v>
       </c>
       <c r="T34">
-        <v>1407.2660000000001</v>
+        <v>349.94400000000002</v>
       </c>
       <c r="U34">
-        <v>587.99800000000005</v>
+        <v>37.103000000000002</v>
       </c>
       <c r="V34">
-        <v>707.13199999999995</v>
+        <v>270.97000000000003</v>
       </c>
       <c r="W34">
-        <v>-147.34299999999999</v>
+        <v>-65.730999999999995</v>
       </c>
       <c r="X34">
-        <v>-412.90800000000002</v>
+        <v>-303.27300000000002</v>
       </c>
       <c r="Y34">
-        <v>101.98</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>-18.471</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>336.791</v>
+        <v>82.155000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39908</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>304.358</v>
+        <v>75.894000000000005</v>
       </c>
       <c r="D35">
-        <v>2016.4880000000001</v>
+        <v>1236.0309999999999</v>
       </c>
       <c r="E35">
-        <v>694.13599999999997</v>
+        <v>331.03100000000001</v>
       </c>
       <c r="F35">
-        <v>892.50400000000002</v>
+        <v>444.32799999999997</v>
       </c>
       <c r="G35">
-        <v>2216.9290000000001</v>
+        <v>1206.77</v>
       </c>
       <c r="H35">
-        <v>7857.3760000000002</v>
+        <v>3506.5439999999999</v>
       </c>
       <c r="I35">
-        <v>500.63299999999998</v>
+        <v>239.63399999999999</v>
       </c>
       <c r="J35">
-        <v>3161.6849999999999</v>
+        <v>1505.2809999999999</v>
       </c>
       <c r="K35">
-        <v>1168.78</v>
+        <v>357.73700000000002</v>
       </c>
       <c r="L35">
-        <v>-28.99</v>
+        <v>-125.252</v>
       </c>
       <c r="M35">
-        <v>-3.1349999999999998</v>
+        <v>-1.5609999999999999</v>
       </c>
       <c r="N35">
-        <v>2398.1849999999999</v>
+        <v>1103.346</v>
       </c>
       <c r="O35">
-        <v>6434.0159999999996</v>
+        <v>3119.9259999999999</v>
       </c>
       <c r="P35">
-        <v>4618.4639999999999</v>
+        <v>1880.13</v>
       </c>
       <c r="Q35">
-        <v>-122.033</v>
+        <v>33.832999999999998</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39908</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>1423.36</v>
+        <v>386.61799999999999</v>
       </c>
       <c r="U35">
-        <v>465.96499999999997</v>
+        <v>70.936000000000007</v>
       </c>
       <c r="V35">
-        <v>329.96</v>
+        <v>277.17599999999999</v>
       </c>
       <c r="W35">
-        <v>-146.46299999999999</v>
+        <v>-65.728999999999999</v>
       </c>
       <c r="X35">
-        <v>-341.14499999999998</v>
+        <v>-190.77199999999999</v>
       </c>
       <c r="Y35">
-        <v>254.268</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>-18.884</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>304.358</v>
+        <v>75.894000000000005</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39999</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>312.83999999999997</v>
+        <v>71.298000000000002</v>
       </c>
       <c r="D36">
-        <v>1767.2170000000001</v>
+        <v>1171.183</v>
       </c>
       <c r="E36">
-        <v>538.74599999999998</v>
+        <v>272.54199999999997</v>
       </c>
       <c r="F36">
-        <v>874.74400000000003</v>
+        <v>456.40600000000001</v>
       </c>
       <c r="G36">
-        <v>2093.558</v>
+        <v>1178.924</v>
       </c>
       <c r="H36">
-        <v>7793.56</v>
+        <v>3493.422</v>
       </c>
       <c r="I36">
-        <v>479.79199999999997</v>
+        <v>279.70600000000002</v>
       </c>
       <c r="J36">
-        <v>2812.645</v>
+        <v>1504.4749999999999</v>
       </c>
       <c r="K36">
-        <v>886.779</v>
+        <v>245.434</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>2387.4270000000001</v>
+        <v>1001.939</v>
       </c>
       <c r="O36">
-        <v>6109.4790000000003</v>
+        <v>3036.2420000000002</v>
       </c>
       <c r="P36">
-        <v>4351.2759999999998</v>
+        <v>1766.404</v>
       </c>
       <c r="Q36">
-        <v>-100.002</v>
+        <v>-42.167999999999999</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39999</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>1684.0809999999999</v>
+        <v>457.18</v>
       </c>
       <c r="U36">
-        <v>365.96300000000002</v>
+        <v>28.768000000000001</v>
       </c>
       <c r="V36">
-        <v>349.36799999999999</v>
+        <v>169.005</v>
       </c>
       <c r="W36">
-        <v>-149.02000000000001</v>
+        <v>-65.757999999999996</v>
       </c>
       <c r="X36">
-        <v>-357.58499999999998</v>
+        <v>-177.76900000000001</v>
       </c>
       <c r="Y36">
-        <v>270.06299999999999</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-11.385999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>312.83999999999997</v>
+        <v>71.298000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43737</v>
+        <v>40090</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>325.30700000000002</v>
+        <v>162.023</v>
       </c>
       <c r="D37">
-        <v>2134.422</v>
+        <v>1484.1179999999999</v>
       </c>
       <c r="E37">
-        <v>849.21799999999996</v>
+        <v>567.60900000000004</v>
       </c>
       <c r="F37">
-        <v>943.31799999999998</v>
+        <v>590.423</v>
       </c>
       <c r="G37">
-        <v>2375.0549999999998</v>
+        <v>1462.6369999999999</v>
       </c>
       <c r="H37">
-        <v>8464.26</v>
+        <v>3773.107</v>
       </c>
       <c r="I37">
-        <v>553.56100000000004</v>
+        <v>285.23099999999999</v>
       </c>
       <c r="J37">
-        <v>2817.6089999999999</v>
+        <v>1503.4349999999999</v>
       </c>
       <c r="K37">
-        <v>1275.43</v>
+        <v>227.38900000000001</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>2982.3739999999998</v>
+        <v>1108.329</v>
       </c>
       <c r="O37">
-        <v>6702.6689999999999</v>
+        <v>3135.59</v>
       </c>
       <c r="P37">
-        <v>4738.6080000000002</v>
+        <v>1746.4559999999999</v>
       </c>
       <c r="Q37">
-        <v>-63.326999999999998</v>
+        <v>90.484999999999999</v>
       </c>
       <c r="R37">
-        <v>43737</v>
+        <v>40090</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>1761.5909999999999</v>
+        <v>637.51700000000005</v>
       </c>
       <c r="U37">
-        <v>302.63600000000002</v>
+        <v>119.253</v>
       </c>
       <c r="V37">
-        <v>314.05900000000003</v>
+        <v>189.36699999999999</v>
       </c>
       <c r="W37">
-        <v>-157.727</v>
+        <v>-65.918000000000006</v>
       </c>
       <c r="X37">
-        <v>115.90600000000001</v>
+        <v>-67.662999999999997</v>
       </c>
       <c r="Y37">
-        <v>263.64800000000002</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-22.388000000000002</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>325.30700000000002</v>
+        <v>162.023</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>207.18700000000001</v>
+        <v>126.779</v>
       </c>
       <c r="D38">
-        <v>2068.125</v>
+        <v>1407.336</v>
       </c>
       <c r="E38">
-        <v>568.50900000000001</v>
+        <v>410.39</v>
       </c>
       <c r="F38">
-        <v>911.91200000000003</v>
+        <v>572.16499999999996</v>
       </c>
       <c r="G38">
-        <v>2117.1019999999999</v>
+        <v>1385.434</v>
       </c>
       <c r="H38">
-        <v>8140.3950000000004</v>
+        <v>3675.0309999999999</v>
       </c>
       <c r="I38">
-        <v>550.82799999999997</v>
+        <v>287.935</v>
       </c>
       <c r="J38">
-        <v>3455.2489999999998</v>
+        <v>1502.73</v>
       </c>
       <c r="K38">
-        <v>32.281999999999996</v>
+        <v>24.065999999999999</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,164 +3880,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>2008.7929999999999</v>
+        <v>910.62800000000004</v>
       </c>
       <c r="O38">
-        <v>6395.4009999999998</v>
+        <v>2914.692</v>
       </c>
       <c r="P38">
-        <v>4479.857</v>
+        <v>1542.0429999999999</v>
       </c>
       <c r="Q38">
-        <v>190.626</v>
+        <v>134.352</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>14520</v>
+        <v>12100</v>
       </c>
       <c r="T38">
-        <v>1744.9939999999999</v>
+        <v>760.33900000000006</v>
       </c>
       <c r="U38">
-        <v>493.262</v>
+        <v>253.60499999999999</v>
       </c>
       <c r="V38">
-        <v>770.48599999999999</v>
+        <v>430.20100000000002</v>
       </c>
       <c r="W38">
-        <v>-157.102</v>
+        <v>-65.998000000000005</v>
       </c>
       <c r="X38">
-        <v>-498.63099999999997</v>
+        <v>-262.71699999999998</v>
       </c>
       <c r="Y38">
-        <v>259.72699999999998</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-27.571999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>207.18700000000001</v>
+        <v>126.779</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43919</v>
+        <v>40272</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>271.137</v>
+        <v>147.39400000000001</v>
       </c>
       <c r="D39">
-        <v>2037.317</v>
+        <v>1407.8430000000001</v>
       </c>
       <c r="E39">
-        <v>705.63900000000001</v>
+        <v>411.245</v>
       </c>
       <c r="F39">
-        <v>866.62199999999996</v>
+        <v>593.98</v>
       </c>
       <c r="G39">
-        <v>2854.7530000000002</v>
+        <v>1413.0319999999999</v>
       </c>
       <c r="H39">
-        <v>8855.4429999999993</v>
+        <v>3698.6869999999999</v>
       </c>
       <c r="I39">
-        <v>531.928</v>
+        <v>294.22300000000001</v>
       </c>
       <c r="J39">
-        <v>3377.0650000000001</v>
+        <v>1502.183</v>
       </c>
       <c r="K39">
-        <v>837.62099999999998</v>
+        <v>42.161999999999999</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-1.0860000000000001</v>
+        <v>-1.833</v>
       </c>
       <c r="N39">
-        <v>2892.799</v>
+        <v>902.29499999999996</v>
       </c>
       <c r="O39">
-        <v>7180.902</v>
+        <v>2909.6219999999998</v>
       </c>
       <c r="P39">
-        <v>5290.9830000000002</v>
+        <v>1558.1310000000001</v>
       </c>
       <c r="Q39">
-        <v>601.53399999999999</v>
+        <v>50.180999999999997</v>
       </c>
       <c r="R39">
-        <v>43919</v>
+        <v>40272</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>1674.5409999999999</v>
+        <v>789.06500000000005</v>
       </c>
       <c r="U39">
-        <v>1094.796</v>
+        <v>303.786</v>
       </c>
       <c r="V39">
-        <v>246.09299999999999</v>
+        <v>181.18600000000001</v>
       </c>
       <c r="W39">
-        <v>-157.803</v>
+        <v>-70.906000000000006</v>
       </c>
       <c r="X39">
-        <v>495.625</v>
+        <v>-95.628</v>
       </c>
       <c r="Y39">
-        <v>259.79500000000002</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>-11.473000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>271.137</v>
+        <v>147.39400000000001</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44010</v>
+        <v>40363</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>268.90100000000001</v>
+        <v>46.722999999999999</v>
       </c>
       <c r="D40">
-        <v>1707.329</v>
+        <v>1233.242</v>
       </c>
       <c r="E40">
-        <v>540.39800000000002</v>
+        <v>321.05099999999999</v>
       </c>
       <c r="F40">
-        <v>792.55200000000002</v>
+        <v>547.51400000000001</v>
       </c>
       <c r="G40">
-        <v>2902.944</v>
+        <v>1414.9880000000001</v>
       </c>
       <c r="H40">
-        <v>8911.0709999999999</v>
+        <v>3619.9870000000001</v>
       </c>
       <c r="I40">
-        <v>530.04200000000003</v>
+        <v>304.99299999999999</v>
       </c>
       <c r="J40">
-        <v>4015.3389999999999</v>
+        <v>1508.684</v>
       </c>
       <c r="K40">
-        <v>198.29900000000001</v>
+        <v>28.968</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>2214.8180000000002</v>
+        <v>876.00900000000001</v>
       </c>
       <c r="O40">
-        <v>7154.982</v>
+        <v>2887.4850000000001</v>
       </c>
       <c r="P40">
-        <v>5293.8180000000002</v>
+        <v>1549.6890000000001</v>
       </c>
       <c r="Q40">
-        <v>70.534999999999997</v>
+        <v>-54.716000000000001</v>
       </c>
       <c r="R40">
-        <v>44010</v>
+        <v>40363</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>1756.0889999999999</v>
+        <v>732.50199999999995</v>
       </c>
       <c r="U40">
-        <v>1165.3309999999999</v>
+        <v>249.07</v>
       </c>
       <c r="V40">
-        <v>367.95400000000001</v>
+        <v>83.662000000000006</v>
       </c>
       <c r="W40">
-        <v>-156.476</v>
+        <v>-70.805999999999997</v>
       </c>
       <c r="X40">
-        <v>-199.767</v>
+        <v>-99.656000000000006</v>
       </c>
       <c r="Y40">
-        <v>260.49799999999999</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-14.919</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>268.90100000000001</v>
+        <v>46.722999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44101</v>
+        <v>40454</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>447.28300000000002</v>
+        <v>180.16900000000001</v>
       </c>
       <c r="D41">
-        <v>2219.8290000000002</v>
+        <v>1547.115</v>
       </c>
       <c r="E41">
-        <v>829.51300000000003</v>
+        <v>605.74099999999999</v>
       </c>
       <c r="F41">
-        <v>1080.0239999999999</v>
+        <v>661.34299999999996</v>
       </c>
       <c r="G41">
-        <v>3207.096</v>
+        <v>1664.8119999999999</v>
       </c>
       <c r="H41">
-        <v>9255.0339999999997</v>
+        <v>3886.9430000000002</v>
       </c>
       <c r="I41">
-        <v>589.58600000000001</v>
+        <v>350.25299999999999</v>
       </c>
       <c r="J41">
-        <v>4017.9630000000002</v>
+        <v>1250.546</v>
       </c>
       <c r="K41">
-        <v>45.68</v>
+        <v>14.992000000000001</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>2228.1930000000002</v>
+        <v>1270.0899999999999</v>
       </c>
       <c r="O41">
-        <v>7186.2209999999995</v>
+        <v>3024.0059999999999</v>
       </c>
       <c r="P41">
-        <v>5150.0860000000002</v>
+        <v>1545.519</v>
       </c>
       <c r="Q41">
-        <v>40.558</v>
+        <v>-4.1230000000000002</v>
       </c>
       <c r="R41">
-        <v>44101</v>
+        <v>40454</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>2068.8130000000001</v>
+        <v>862.93700000000001</v>
       </c>
       <c r="U41">
-        <v>1205.8889999999999</v>
+        <v>244.947</v>
       </c>
       <c r="V41">
-        <v>481.21899999999999</v>
+        <v>123.351</v>
       </c>
       <c r="W41">
-        <v>-163.739</v>
+        <v>-70.89</v>
       </c>
       <c r="X41">
-        <v>-315.82299999999998</v>
+        <v>-79.962999999999994</v>
       </c>
       <c r="Y41">
-        <v>262.91800000000001</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-20.045999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>447.28300000000002</v>
+        <v>180.16900000000001</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>135.51300000000001</v>
+      </c>
+      <c r="D42">
+        <v>1482.809</v>
+      </c>
+      <c r="E42">
+        <v>390.06099999999998</v>
+      </c>
+      <c r="F42">
+        <v>626.01499999999999</v>
+      </c>
+      <c r="G42">
+        <v>2005.2170000000001</v>
+      </c>
+      <c r="H42">
+        <v>4272.732</v>
+      </c>
+      <c r="I42">
+        <v>410.65499999999997</v>
+      </c>
+      <c r="J42">
+        <v>1541.825</v>
+      </c>
+      <c r="K42">
+        <v>24.088000000000001</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1298.845</v>
+      </c>
+      <c r="O42">
+        <v>3335.1309999999999</v>
+      </c>
+      <c r="P42">
+        <v>1836.1780000000001</v>
+      </c>
+      <c r="Q42">
+        <v>639.69500000000005</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>11300</v>
+      </c>
+      <c r="T42">
+        <v>937.601</v>
+      </c>
+      <c r="U42">
+        <v>884.64200000000005</v>
+      </c>
+      <c r="V42">
+        <v>513.22400000000005</v>
+      </c>
+      <c r="W42">
+        <v>-70.831999999999994</v>
+      </c>
+      <c r="X42">
+        <v>204.14699999999999</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>135.51300000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40636</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>160.11500000000001</v>
+      </c>
+      <c r="D43">
+        <v>1564.223</v>
+      </c>
+      <c r="E43">
+        <v>433.51900000000001</v>
+      </c>
+      <c r="F43">
+        <v>663.04399999999998</v>
+      </c>
+      <c r="G43">
+        <v>1954.521</v>
+      </c>
+      <c r="H43">
+        <v>4235.1549999999997</v>
+      </c>
+      <c r="I43">
+        <v>381.50400000000002</v>
+      </c>
+      <c r="J43">
+        <v>1540.924</v>
+      </c>
+      <c r="K43">
+        <v>24.474</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-1.496</v>
+      </c>
+      <c r="N43">
+        <v>1290.932</v>
+      </c>
+      <c r="O43">
+        <v>3326.1709999999998</v>
+      </c>
+      <c r="P43">
+        <v>1834.4659999999999</v>
+      </c>
+      <c r="Q43">
+        <v>-132.376</v>
+      </c>
+      <c r="R43">
+        <v>40636</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>908.98400000000004</v>
+      </c>
+      <c r="U43">
+        <v>752.26599999999996</v>
+      </c>
+      <c r="V43">
+        <v>159.37799999999999</v>
+      </c>
+      <c r="W43">
+        <v>-76.623000000000005</v>
+      </c>
+      <c r="X43">
+        <v>-204.57300000000001</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>160.11500000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40727</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>130.01900000000001</v>
+      </c>
+      <c r="D44">
+        <v>1325.171</v>
+      </c>
+      <c r="E44">
+        <v>296.94600000000003</v>
+      </c>
+      <c r="F44">
+        <v>571.34299999999996</v>
+      </c>
+      <c r="G44">
+        <v>1992.076</v>
+      </c>
+      <c r="H44">
+        <v>4312.7529999999997</v>
+      </c>
+      <c r="I44">
+        <v>399.84100000000001</v>
+      </c>
+      <c r="J44">
+        <v>1541.3879999999999</v>
+      </c>
+      <c r="K44">
+        <v>34.484999999999999</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1221.8130000000001</v>
+      </c>
+      <c r="O44">
+        <v>3267.0590000000002</v>
+      </c>
+      <c r="P44">
+        <v>1850.56</v>
+      </c>
+      <c r="Q44">
+        <v>38.030999999999999</v>
+      </c>
+      <c r="R44">
+        <v>40727</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>1045.694</v>
+      </c>
+      <c r="U44">
+        <v>790.29700000000003</v>
+      </c>
+      <c r="V44">
+        <v>127.31399999999999</v>
+      </c>
+      <c r="W44">
+        <v>-76.066000000000003</v>
+      </c>
+      <c r="X44">
+        <v>9.0559999999999992</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>130.01900000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40818</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>196.69499999999999</v>
+      </c>
+      <c r="D45">
+        <v>1624.249</v>
+      </c>
+      <c r="E45">
+        <v>620.745</v>
+      </c>
+      <c r="F45">
+        <v>689.64499999999998</v>
+      </c>
+      <c r="G45">
+        <v>1814.0150000000001</v>
+      </c>
+      <c r="H45">
+        <v>4130.5060000000003</v>
+      </c>
+      <c r="I45">
+        <v>430.25099999999998</v>
+      </c>
+      <c r="J45">
+        <v>1498.8620000000001</v>
+      </c>
+      <c r="K45">
+        <v>39.860999999999997</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1181.4269999999999</v>
+      </c>
+      <c r="O45">
+        <v>3175.8290000000002</v>
+      </c>
+      <c r="P45">
+        <v>1639.2919999999999</v>
+      </c>
+      <c r="Q45">
+        <v>-497.95800000000003</v>
+      </c>
+      <c r="R45">
+        <v>40818</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>954.67700000000002</v>
+      </c>
+      <c r="U45">
+        <v>292.339</v>
+      </c>
+      <c r="V45">
+        <v>-29.463000000000001</v>
+      </c>
+      <c r="W45">
+        <v>-75.701999999999998</v>
+      </c>
+      <c r="X45">
+        <v>-402.92899999999997</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>196.69499999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>142.13300000000001</v>
+      </c>
+      <c r="D46">
+        <v>1567.145</v>
+      </c>
+      <c r="E46">
+        <v>399.49900000000002</v>
+      </c>
+      <c r="F46">
+        <v>652.95600000000002</v>
+      </c>
+      <c r="G46">
+        <v>2046.558</v>
+      </c>
+      <c r="H46">
+        <v>4407.0940000000001</v>
+      </c>
+      <c r="I46">
+        <v>420.017</v>
+      </c>
+      <c r="J46">
+        <v>1748.5</v>
+      </c>
+      <c r="K46">
+        <v>42.08</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>1173.7750000000001</v>
+      </c>
+      <c r="O46">
+        <v>3526.1509999999998</v>
+      </c>
+      <c r="P46">
+        <v>1888.173</v>
+      </c>
+      <c r="Q46">
+        <v>401.34699999999998</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>11800</v>
+      </c>
+      <c r="T46">
+        <v>880.94299999999998</v>
+      </c>
+      <c r="U46">
+        <v>693.68600000000004</v>
+      </c>
+      <c r="V46">
+        <v>330.63799999999998</v>
+      </c>
+      <c r="W46">
+        <v>-75.691999999999993</v>
+      </c>
+      <c r="X46">
+        <v>159.62799999999999</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>142.13300000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>41000</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>198.65100000000001</v>
+      </c>
+      <c r="D47">
+        <v>1732.0640000000001</v>
+      </c>
+      <c r="E47">
+        <v>502.45499999999998</v>
+      </c>
+      <c r="F47">
+        <v>762.85</v>
+      </c>
+      <c r="G47">
+        <v>2012.4449999999999</v>
+      </c>
+      <c r="H47">
+        <v>4599.4570000000003</v>
+      </c>
+      <c r="I47">
+        <v>380.404</v>
+      </c>
+      <c r="J47">
+        <v>1748.63</v>
+      </c>
+      <c r="K47">
+        <v>146.67699999999999</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-1.5129999999999999</v>
+      </c>
+      <c r="N47">
+        <v>1323.809</v>
+      </c>
+      <c r="O47">
+        <v>3713.864</v>
+      </c>
+      <c r="P47">
+        <v>1993.085</v>
+      </c>
+      <c r="Q47">
+        <v>-126.34699999999999</v>
+      </c>
+      <c r="R47">
+        <v>41000</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>885.59299999999996</v>
+      </c>
+      <c r="U47">
+        <v>567.33900000000006</v>
+      </c>
+      <c r="V47">
+        <v>275.80200000000002</v>
+      </c>
+      <c r="W47">
+        <v>-83.533000000000001</v>
+      </c>
+      <c r="X47">
+        <v>-128.566</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>198.65100000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41091</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>135.685</v>
+      </c>
+      <c r="D48">
+        <v>1414.444</v>
+      </c>
+      <c r="E48">
+        <v>353.33699999999999</v>
+      </c>
+      <c r="F48">
+        <v>631.95000000000005</v>
+      </c>
+      <c r="G48">
+        <v>2093.5729999999999</v>
+      </c>
+      <c r="H48">
+        <v>4667.9719999999998</v>
+      </c>
+      <c r="I48">
+        <v>388.47199999999998</v>
+      </c>
+      <c r="J48">
+        <v>1500.376</v>
+      </c>
+      <c r="K48">
+        <v>139.35599999999999</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1446.972</v>
+      </c>
+      <c r="O48">
+        <v>3582.0010000000002</v>
+      </c>
+      <c r="P48">
+        <v>1996.9749999999999</v>
+      </c>
+      <c r="Q48">
+        <v>22.443000000000001</v>
+      </c>
+      <c r="R48">
+        <v>41091</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>1085.971</v>
+      </c>
+      <c r="U48">
+        <v>589.78200000000004</v>
+      </c>
+      <c r="V48">
+        <v>38.356000000000002</v>
+      </c>
+      <c r="W48">
+        <v>-83.561000000000007</v>
+      </c>
+      <c r="X48">
+        <v>47.091000000000001</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>135.685</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>176.71600000000001</v>
+      </c>
+      <c r="D49">
+        <v>1746.7090000000001</v>
+      </c>
+      <c r="E49">
+        <v>649.32799999999997</v>
+      </c>
+      <c r="F49">
+        <v>747.91499999999996</v>
+      </c>
+      <c r="G49">
+        <v>2135.9549999999999</v>
+      </c>
+      <c r="H49">
+        <v>4737.7820000000002</v>
+      </c>
+      <c r="I49">
+        <v>435.28300000000002</v>
+      </c>
+      <c r="J49">
+        <v>1518.1220000000001</v>
+      </c>
+      <c r="K49">
+        <v>208.352</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1552.954</v>
+      </c>
+      <c r="O49">
+        <v>3740.82</v>
+      </c>
+      <c r="P49">
+        <v>1991.316</v>
+      </c>
+      <c r="Q49">
+        <v>-123.547</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>996.96199999999999</v>
+      </c>
+      <c r="U49">
+        <v>466.23500000000001</v>
+      </c>
+      <c r="V49">
+        <v>291.74900000000002</v>
+      </c>
+      <c r="W49">
+        <v>-82.733000000000004</v>
+      </c>
+      <c r="X49">
+        <v>-349.44099999999997</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>176.71600000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>149.87899999999999</v>
+      </c>
+      <c r="D50">
+        <v>1751.0350000000001</v>
+      </c>
+      <c r="E50">
+        <v>461.38299999999998</v>
+      </c>
+      <c r="F50">
+        <v>757.65</v>
+      </c>
+      <c r="G50">
+        <v>2113.4850000000001</v>
+      </c>
+      <c r="H50">
+        <v>4754.8389999999999</v>
+      </c>
+      <c r="I50">
+        <v>441.97699999999998</v>
+      </c>
+      <c r="J50">
+        <v>1530.9670000000001</v>
+      </c>
+      <c r="K50">
+        <v>118.164</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1471.11</v>
+      </c>
+      <c r="O50">
+        <v>3706.4659999999999</v>
+      </c>
+      <c r="P50">
+        <v>1906.865</v>
+      </c>
+      <c r="Q50">
+        <v>262.03699999999998</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>12100</v>
+      </c>
+      <c r="T50">
+        <v>1048.373</v>
+      </c>
+      <c r="U50">
+        <v>728.27200000000005</v>
+      </c>
+      <c r="V50">
+        <v>488.92</v>
+      </c>
+      <c r="W50">
+        <v>-91.379000000000005</v>
+      </c>
+      <c r="X50">
+        <v>-155.95599999999999</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>149.87899999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>241.90600000000001</v>
+      </c>
+      <c r="D51">
+        <v>1827.4259999999999</v>
+      </c>
+      <c r="E51">
+        <v>516.59299999999996</v>
+      </c>
+      <c r="F51">
+        <v>849.46400000000006</v>
+      </c>
+      <c r="G51">
+        <v>2180.0210000000002</v>
+      </c>
+      <c r="H51">
+        <v>4845.63</v>
+      </c>
+      <c r="I51">
+        <v>412.31900000000002</v>
+      </c>
+      <c r="J51">
+        <v>1539.8</v>
+      </c>
+      <c r="K51">
+        <v>100.55200000000001</v>
+      </c>
+      <c r="L51">
+        <v>-18.52</v>
+      </c>
+      <c r="M51">
+        <v>-4.1000000000000002E-2</v>
+      </c>
+      <c r="N51">
+        <v>1492.067</v>
+      </c>
+      <c r="O51">
+        <v>3733.0659999999998</v>
+      </c>
+      <c r="P51">
+        <v>1893.279</v>
+      </c>
+      <c r="Q51">
+        <v>1.8240000000000001</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>1112.5640000000001</v>
+      </c>
+      <c r="U51">
+        <v>730.096</v>
+      </c>
+      <c r="V51">
+        <v>293.18</v>
+      </c>
+      <c r="W51">
+        <v>-91.603999999999999</v>
+      </c>
+      <c r="X51">
+        <v>-198.065</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>241.90600000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>159.50399999999999</v>
+      </c>
+      <c r="D52">
+        <v>1508.5139999999999</v>
+      </c>
+      <c r="E52">
+        <v>366.28800000000001</v>
+      </c>
+      <c r="F52">
+        <v>718.59400000000005</v>
+      </c>
+      <c r="G52">
+        <v>1998.8869999999999</v>
+      </c>
+      <c r="H52">
+        <v>4696.8680000000004</v>
+      </c>
+      <c r="I52">
+        <v>413.14400000000001</v>
+      </c>
+      <c r="J52">
+        <v>1794.4929999999999</v>
+      </c>
+      <c r="K52">
+        <v>99.081000000000003</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1084.2059999999999</v>
+      </c>
+      <c r="O52">
+        <v>3575.1410000000001</v>
+      </c>
+      <c r="P52">
+        <v>1896.89</v>
+      </c>
+      <c r="Q52">
+        <v>-161.73599999999999</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>1121.7270000000001</v>
+      </c>
+      <c r="U52">
+        <v>568.36</v>
+      </c>
+      <c r="V52">
+        <v>56.265999999999998</v>
+      </c>
+      <c r="W52">
+        <v>-91.290999999999997</v>
+      </c>
+      <c r="X52">
+        <v>-151.81100000000001</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>159.50399999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41546</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>232.98500000000001</v>
+      </c>
+      <c r="D53">
+        <v>1853.886</v>
+      </c>
+      <c r="E53">
+        <v>659.74</v>
+      </c>
+      <c r="F53">
+        <v>855.61300000000006</v>
+      </c>
+      <c r="G53">
+        <v>2375.694</v>
+      </c>
+      <c r="H53">
+        <v>5077.9189999999999</v>
+      </c>
+      <c r="I53">
+        <v>481.59300000000002</v>
+      </c>
+      <c r="J53">
+        <v>1796.2629999999999</v>
+      </c>
+      <c r="K53">
+        <v>107.06399999999999</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1260.768</v>
+      </c>
+      <c r="O53">
+        <v>3727.3440000000001</v>
+      </c>
+      <c r="P53">
+        <v>1906.3869999999999</v>
+      </c>
+      <c r="Q53">
+        <v>132.96799999999999</v>
+      </c>
+      <c r="R53">
+        <v>41546</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>1350.575</v>
+      </c>
+      <c r="U53">
+        <v>701.32799999999997</v>
+      </c>
+      <c r="V53">
+        <v>274.26799999999997</v>
+      </c>
+      <c r="W53">
+        <v>-105.374</v>
+      </c>
+      <c r="X53">
+        <v>-71.611000000000004</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>232.98500000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>186.07499999999999</v>
+      </c>
+      <c r="D54">
+        <v>1956.2529999999999</v>
+      </c>
+      <c r="E54">
+        <v>477.91199999999998</v>
+      </c>
+      <c r="F54">
+        <v>857.57899999999995</v>
+      </c>
+      <c r="G54">
+        <v>2487.3339999999998</v>
+      </c>
+      <c r="H54">
+        <v>5357.4880000000003</v>
+      </c>
+      <c r="I54">
+        <v>461.51400000000001</v>
+      </c>
+      <c r="J54">
+        <v>1795.1420000000001</v>
+      </c>
+      <c r="K54">
+        <v>165.96100000000001</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1408.0219999999999</v>
+      </c>
+      <c r="O54">
+        <v>3741.4360000000001</v>
+      </c>
+      <c r="P54">
+        <v>1962.0170000000001</v>
+      </c>
+      <c r="Q54">
+        <v>417.18</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>12600</v>
+      </c>
+      <c r="T54">
+        <v>1616.0519999999999</v>
+      </c>
+      <c r="U54">
+        <v>1118.508</v>
+      </c>
+      <c r="V54">
+        <v>564.69100000000003</v>
+      </c>
+      <c r="W54">
+        <v>-105.532</v>
+      </c>
+      <c r="X54">
+        <v>-25.102</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>186.07499999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41728</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>252.495</v>
+      </c>
+      <c r="D55">
+        <v>1871.8130000000001</v>
+      </c>
+      <c r="E55">
+        <v>620.49300000000005</v>
+      </c>
+      <c r="F55">
+        <v>871.59100000000001</v>
+      </c>
+      <c r="G55">
+        <v>2544.9740000000002</v>
+      </c>
+      <c r="H55">
+        <v>5428.8459999999995</v>
+      </c>
+      <c r="I55">
+        <v>465.16199999999998</v>
+      </c>
+      <c r="J55">
+        <v>1793.5</v>
+      </c>
+      <c r="K55">
+        <v>182.00700000000001</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-0.39300000000000002</v>
+      </c>
+      <c r="N55">
+        <v>1444.4449999999999</v>
+      </c>
+      <c r="O55">
+        <v>3759.7829999999999</v>
+      </c>
+      <c r="P55">
+        <v>1976.482</v>
+      </c>
+      <c r="Q55">
+        <v>-112.41200000000001</v>
+      </c>
+      <c r="R55">
+        <v>41728</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>1669.0630000000001</v>
+      </c>
+      <c r="U55">
+        <v>1006.096</v>
+      </c>
+      <c r="V55">
+        <v>203.75700000000001</v>
+      </c>
+      <c r="W55">
+        <v>-105.31</v>
+      </c>
+      <c r="X55">
+        <v>-247.13300000000001</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>252.495</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41819</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>168.16800000000001</v>
+      </c>
+      <c r="D56">
+        <v>1578.35</v>
+      </c>
+      <c r="E56">
+        <v>423.64800000000002</v>
+      </c>
+      <c r="F56">
+        <v>717.46600000000001</v>
+      </c>
+      <c r="G56">
+        <v>2261.8090000000002</v>
+      </c>
+      <c r="H56">
+        <v>5184.9690000000001</v>
+      </c>
+      <c r="I56">
+        <v>464.93799999999999</v>
+      </c>
+      <c r="J56">
+        <v>1794.83</v>
+      </c>
+      <c r="K56">
+        <v>197.03100000000001</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1261.5650000000001</v>
+      </c>
+      <c r="O56">
+        <v>3576.4090000000001</v>
+      </c>
+      <c r="P56">
+        <v>1992.8630000000001</v>
+      </c>
+      <c r="Q56">
+        <v>-443.495</v>
+      </c>
+      <c r="R56">
+        <v>41819</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>1608.56</v>
+      </c>
+      <c r="U56">
+        <v>562.601</v>
+      </c>
+      <c r="V56">
+        <v>-31.824999999999999</v>
+      </c>
+      <c r="W56">
+        <v>-104.596</v>
+      </c>
+      <c r="X56">
+        <v>-244.904</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-97.215999999999994</v>
+      </c>
+      <c r="AA56">
+        <v>168.16800000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41910</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>223.74100000000001</v>
+      </c>
+      <c r="D57">
+        <v>1961.578</v>
+      </c>
+      <c r="E57">
+        <v>786.36599999999999</v>
+      </c>
+      <c r="F57">
+        <v>860.13699999999994</v>
+      </c>
+      <c r="G57">
+        <v>2532.5720000000001</v>
+      </c>
+      <c r="H57">
+        <v>5916.5529999999999</v>
+      </c>
+      <c r="I57">
+        <v>522.78700000000003</v>
+      </c>
+      <c r="J57">
+        <v>1562.106</v>
+      </c>
+      <c r="K57">
+        <v>649.19500000000005</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>2192.2190000000001</v>
+      </c>
+      <c r="O57">
+        <v>4308.6930000000002</v>
+      </c>
+      <c r="P57">
+        <v>2462.1819999999998</v>
+      </c>
+      <c r="Q57">
+        <v>-85.513000000000005</v>
+      </c>
+      <c r="R57">
+        <v>41910</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>1607.86</v>
+      </c>
+      <c r="U57">
+        <v>477.08800000000002</v>
+      </c>
+      <c r="V57">
+        <v>215.501</v>
+      </c>
+      <c r="W57">
+        <v>-115.25</v>
+      </c>
+      <c r="X57">
+        <v>155.55099999999999</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-1.093</v>
+      </c>
+      <c r="AA57">
+        <v>223.74100000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>202.50800000000001</v>
+      </c>
+      <c r="D58">
+        <v>2010.027</v>
+      </c>
+      <c r="E58">
+        <v>596.94000000000005</v>
+      </c>
+      <c r="F58">
+        <v>888.59400000000005</v>
+      </c>
+      <c r="G58">
+        <v>2247.047</v>
+      </c>
+      <c r="H58">
+        <v>5622.87</v>
+      </c>
+      <c r="I58">
+        <v>482.017</v>
+      </c>
+      <c r="J58">
+        <v>1542.317</v>
+      </c>
+      <c r="K58">
+        <v>384.69600000000003</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1935.6469999999999</v>
+      </c>
+      <c r="O58">
+        <v>4103.34</v>
+      </c>
+      <c r="P58">
+        <v>2177.8180000000002</v>
+      </c>
+      <c r="Q58">
+        <v>-102.23399999999999</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>20800</v>
+      </c>
+      <c r="T58">
+        <v>1519.53</v>
+      </c>
+      <c r="U58">
+        <v>374.85399999999998</v>
+      </c>
+      <c r="V58">
+        <v>456.94400000000002</v>
+      </c>
+      <c r="W58">
+        <v>-115.258</v>
+      </c>
+      <c r="X58">
+        <v>-382.81599999999997</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>1.1779999999999999</v>
+      </c>
+      <c r="AA58">
+        <v>202.50800000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42099</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>244.73699999999999</v>
+      </c>
+      <c r="D59">
+        <v>1937.8</v>
+      </c>
+      <c r="E59">
+        <v>606.68700000000001</v>
+      </c>
+      <c r="F59">
+        <v>902.32500000000005</v>
+      </c>
+      <c r="G59">
+        <v>2108.0990000000002</v>
+      </c>
+      <c r="H59">
+        <v>5757.4620000000004</v>
+      </c>
+      <c r="I59">
+        <v>449.149</v>
+      </c>
+      <c r="J59">
+        <v>1618.124</v>
+      </c>
+      <c r="K59">
+        <v>649.10299999999995</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-0.32800000000000001</v>
+      </c>
+      <c r="N59">
+        <v>2175.13</v>
+      </c>
+      <c r="O59">
+        <v>4412.9459999999999</v>
+      </c>
+      <c r="P59">
+        <v>2518.011</v>
+      </c>
+      <c r="Q59">
+        <v>-69.164000000000001</v>
+      </c>
+      <c r="R59">
+        <v>42099</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>1344.5160000000001</v>
+      </c>
+      <c r="U59">
+        <v>305.69</v>
+      </c>
+      <c r="V59">
+        <v>259.233</v>
+      </c>
+      <c r="W59">
+        <v>-114.381</v>
+      </c>
+      <c r="X59">
+        <v>-76.501000000000005</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>244.73699999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42190</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>-99.941000000000003</v>
+      </c>
+      <c r="D60">
+        <v>1578.825</v>
+      </c>
+      <c r="E60">
+        <v>443.452</v>
+      </c>
+      <c r="F60">
+        <v>736.91</v>
+      </c>
+      <c r="G60">
+        <v>2007.4469999999999</v>
+      </c>
+      <c r="H60">
+        <v>5449.33</v>
+      </c>
+      <c r="I60">
+        <v>423.37900000000002</v>
+      </c>
+      <c r="J60">
+        <v>1568.9010000000001</v>
+      </c>
+      <c r="K60">
+        <v>615.702</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>2018.2719999999999</v>
+      </c>
+      <c r="O60">
+        <v>4211.0619999999999</v>
+      </c>
+      <c r="P60">
+        <v>2435.328</v>
+      </c>
+      <c r="Q60">
+        <v>-3.0310000000000001</v>
+      </c>
+      <c r="R60">
+        <v>42190</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>1238.268</v>
+      </c>
+      <c r="U60">
+        <v>302.65899999999999</v>
+      </c>
+      <c r="V60">
+        <v>227.08199999999999</v>
+      </c>
+      <c r="W60">
+        <v>-114.581</v>
+      </c>
+      <c r="X60">
+        <v>-139.053</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-1.865</v>
+      </c>
+      <c r="AA60">
+        <v>-99.941000000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42281</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>154.77099999999999</v>
+      </c>
+      <c r="D61">
+        <v>1960.779</v>
+      </c>
+      <c r="E61">
+        <v>760.78899999999999</v>
+      </c>
+      <c r="F61">
+        <v>900.62800000000004</v>
+      </c>
+      <c r="G61">
+        <v>2209.33</v>
+      </c>
+      <c r="H61">
+        <v>5630.62</v>
+      </c>
+      <c r="I61">
+        <v>448.59899999999999</v>
+      </c>
+      <c r="J61">
+        <v>1830.1859999999999</v>
+      </c>
+      <c r="K61">
+        <v>687.98099999999999</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>2235.241</v>
+      </c>
+      <c r="O61">
+        <v>4693.4939999999997</v>
+      </c>
+      <c r="P61">
+        <v>2768.5880000000002</v>
+      </c>
+      <c r="Q61">
+        <v>41.253999999999998</v>
+      </c>
+      <c r="R61">
+        <v>42281</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>937.12599999999998</v>
+      </c>
+      <c r="U61">
+        <v>343.91300000000001</v>
+      </c>
+      <c r="V61">
+        <v>108.77</v>
+      </c>
+      <c r="W61">
+        <v>-124.108</v>
+      </c>
+      <c r="X61">
+        <v>-71.837000000000003</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>93.406000000000006</v>
+      </c>
+      <c r="AA61">
+        <v>154.77099999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>213.38399999999999</v>
+      </c>
+      <c r="D62">
+        <v>1909.222</v>
+      </c>
+      <c r="E62">
+        <v>599.07299999999998</v>
+      </c>
+      <c r="F62">
+        <v>858.92100000000005</v>
+      </c>
+      <c r="G62">
+        <v>1848.598</v>
+      </c>
+      <c r="H62">
+        <v>5344.3710000000001</v>
+      </c>
+      <c r="I62">
+        <v>474.26600000000002</v>
+      </c>
+      <c r="J62">
+        <v>1597.39</v>
+      </c>
+      <c r="K62">
+        <v>363.51299999999998</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>2217.9119999999998</v>
+      </c>
+      <c r="O62">
+        <v>4296.9089999999997</v>
+      </c>
+      <c r="P62">
+        <v>2460.826</v>
+      </c>
+      <c r="Q62">
+        <v>2.6160000000000001</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>19060</v>
+      </c>
+      <c r="T62">
+        <v>1047.462</v>
+      </c>
+      <c r="U62">
+        <v>346.529</v>
+      </c>
+      <c r="V62">
+        <v>619.37099999999998</v>
+      </c>
+      <c r="W62">
+        <v>-123.062</v>
+      </c>
+      <c r="X62">
+        <v>-467.77100000000002</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-26.945</v>
+      </c>
+      <c r="AA62">
+        <v>213.38399999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42463</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>229.83199999999999</v>
+      </c>
+      <c r="D63">
+        <v>1828.8119999999999</v>
+      </c>
+      <c r="E63">
+        <v>544.02700000000004</v>
+      </c>
+      <c r="F63">
+        <v>816.88900000000001</v>
+      </c>
+      <c r="G63">
+        <v>1772.9179999999999</v>
+      </c>
+      <c r="H63">
+        <v>5305.84</v>
+      </c>
+      <c r="I63">
+        <v>436.34300000000002</v>
+      </c>
+      <c r="J63">
+        <v>1571.3879999999999</v>
+      </c>
+      <c r="K63">
+        <v>520.56399999999996</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>2336.9720000000002</v>
+      </c>
+      <c r="O63">
+        <v>4426.4870000000001</v>
+      </c>
+      <c r="P63">
+        <v>2591.9679999999998</v>
+      </c>
+      <c r="Q63">
+        <v>-60.570999999999998</v>
+      </c>
+      <c r="R63">
+        <v>42463</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>879.35299999999995</v>
+      </c>
+      <c r="U63">
+        <v>285.95800000000003</v>
+      </c>
+      <c r="V63">
+        <v>269.46899999999999</v>
+      </c>
+      <c r="W63">
+        <v>-122.367</v>
+      </c>
+      <c r="X63">
+        <v>-283.589</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-9.6720000000000006</v>
+      </c>
+      <c r="AA63">
+        <v>229.83199999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42554</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>145.95599999999999</v>
+      </c>
+      <c r="D64">
+        <v>1637.671</v>
+      </c>
+      <c r="E64">
+        <v>483.54500000000002</v>
+      </c>
+      <c r="F64">
+        <v>781.36300000000006</v>
+      </c>
+      <c r="G64">
+        <v>1807.5989999999999</v>
+      </c>
+      <c r="H64">
+        <v>5567.384</v>
+      </c>
+      <c r="I64">
+        <v>455.22500000000002</v>
+      </c>
+      <c r="J64">
+        <v>1571.1790000000001</v>
+      </c>
+      <c r="K64">
+        <v>997.12</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>2671.4459999999999</v>
+      </c>
+      <c r="O64">
+        <v>4792.723</v>
+      </c>
+      <c r="P64">
+        <v>3068.377</v>
+      </c>
+      <c r="Q64">
+        <v>-35.773000000000003</v>
+      </c>
+      <c r="R64">
+        <v>42554</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>774.66099999999994</v>
+      </c>
+      <c r="U64">
+        <v>250.185</v>
+      </c>
+      <c r="V64">
+        <v>99.241</v>
+      </c>
+      <c r="W64">
+        <v>-120.77200000000001</v>
+      </c>
+      <c r="X64">
+        <v>221.376</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-7.0910000000000002</v>
+      </c>
+      <c r="AA64">
+        <v>145.95599999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42645</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>227.40299999999999</v>
+      </c>
+      <c r="D65">
+        <v>2003.454</v>
+      </c>
+      <c r="E65">
+        <v>759.61900000000003</v>
+      </c>
+      <c r="F65">
+        <v>875.31799999999998</v>
+      </c>
+      <c r="G65">
+        <v>2130.5169999999998</v>
+      </c>
+      <c r="H65">
+        <v>5845.4129999999996</v>
+      </c>
+      <c r="I65">
+        <v>458.02800000000002</v>
+      </c>
+      <c r="J65">
+        <v>2362.4659999999999</v>
+      </c>
+      <c r="K65">
+        <v>612.38300000000004</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>2017.0350000000001</v>
+      </c>
+      <c r="O65">
+        <v>4903.3410000000003</v>
+      </c>
+      <c r="P65">
+        <v>3224.873</v>
+      </c>
+      <c r="Q65">
+        <v>83.147999999999996</v>
+      </c>
+      <c r="R65">
+        <v>42645</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>942.072</v>
+      </c>
+      <c r="U65">
+        <v>333.33300000000003</v>
+      </c>
+      <c r="V65">
+        <v>82.05</v>
+      </c>
+      <c r="W65">
+        <v>-128.56700000000001</v>
+      </c>
+      <c r="X65">
+        <v>83.754000000000005</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>-18.632000000000001</v>
+      </c>
+      <c r="AA65">
+        <v>227.40299999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>116.85299999999999</v>
+      </c>
+      <c r="D66">
+        <v>1970.2439999999999</v>
+      </c>
+      <c r="E66">
+        <v>581.38099999999997</v>
+      </c>
+      <c r="F66">
+        <v>742.42700000000002</v>
+      </c>
+      <c r="G66">
+        <v>1816.778</v>
+      </c>
+      <c r="H66">
+        <v>5524.3329999999996</v>
+      </c>
+      <c r="I66">
+        <v>522.53599999999994</v>
+      </c>
+      <c r="J66">
+        <v>2347.4549999999999</v>
+      </c>
+      <c r="K66">
+        <v>632.471</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>1909.443</v>
+      </c>
+      <c r="O66">
+        <v>4696.6459999999997</v>
+      </c>
+      <c r="P66">
+        <v>2980.1689999999999</v>
+      </c>
+      <c r="Q66">
+        <v>-36.366</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>16300</v>
+      </c>
+      <c r="T66">
+        <v>827.68700000000001</v>
+      </c>
+      <c r="U66">
+        <v>296.96699999999998</v>
+      </c>
+      <c r="V66">
+        <v>562.66800000000001</v>
+      </c>
+      <c r="W66">
+        <v>-127.76900000000001</v>
+      </c>
+      <c r="X66">
+        <v>-485.93700000000001</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-8.86</v>
+      </c>
+      <c r="AA66">
+        <v>116.85299999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42827</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>125.044</v>
+      </c>
+      <c r="D67">
+        <v>1879.6780000000001</v>
+      </c>
+      <c r="E67">
+        <v>595.779</v>
+      </c>
+      <c r="F67">
+        <v>909.84199999999998</v>
+      </c>
+      <c r="G67">
+        <v>1873.8610000000001</v>
+      </c>
+      <c r="H67">
+        <v>5342.3850000000002</v>
+      </c>
+      <c r="I67">
+        <v>499.149</v>
+      </c>
+      <c r="J67">
+        <v>2350.9409999999998</v>
+      </c>
+      <c r="K67">
+        <v>487.48700000000002</v>
+      </c>
+      <c r="L67">
+        <v>-146.60400000000001</v>
+      </c>
+      <c r="M67">
+        <v>-9.4E-2</v>
+      </c>
+      <c r="N67">
+        <v>1710.9169999999999</v>
+      </c>
+      <c r="O67">
+        <v>4496.9319999999998</v>
+      </c>
+      <c r="P67">
+        <v>2838.5859999999998</v>
+      </c>
+      <c r="Q67">
+        <v>-61.936</v>
+      </c>
+      <c r="R67">
+        <v>42827</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>845.45299999999997</v>
+      </c>
+      <c r="U67">
+        <v>235.03100000000001</v>
+      </c>
+      <c r="V67">
+        <v>234.46199999999999</v>
+      </c>
+      <c r="W67">
+        <v>-128.017</v>
+      </c>
+      <c r="X67">
+        <v>-256.87400000000002</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>-7.9480000000000004</v>
+      </c>
+      <c r="AA67">
+        <v>125.044</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42918</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>203.501</v>
+      </c>
+      <c r="D68">
+        <v>1662.991</v>
+      </c>
+      <c r="E68">
+        <v>417.45699999999999</v>
+      </c>
+      <c r="F68">
+        <v>771.61900000000003</v>
+      </c>
+      <c r="G68">
+        <v>1911.529</v>
+      </c>
+      <c r="H68">
+        <v>5380.2280000000001</v>
+      </c>
+      <c r="I68">
+        <v>471.54500000000002</v>
+      </c>
+      <c r="J68">
+        <v>2349.7559999999999</v>
+      </c>
+      <c r="K68">
+        <v>621.96500000000003</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1742.2049999999999</v>
+      </c>
+      <c r="O68">
+        <v>4510.2460000000001</v>
+      </c>
+      <c r="P68">
+        <v>2971.81</v>
+      </c>
+      <c r="Q68">
+        <v>-20.969000000000001</v>
+      </c>
+      <c r="R68">
+        <v>42918</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>869.98199999999997</v>
+      </c>
+      <c r="U68">
+        <v>214.06200000000001</v>
+      </c>
+      <c r="V68">
+        <v>101.27200000000001</v>
+      </c>
+      <c r="W68">
+        <v>-128.11099999999999</v>
+      </c>
+      <c r="X68">
+        <v>-58.265999999999998</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-14.467000000000001</v>
+      </c>
+      <c r="AA68">
+        <v>203.501</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43009</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>273.303</v>
+      </c>
+      <c r="D69">
+        <v>2033.1210000000001</v>
+      </c>
+      <c r="E69">
+        <v>742.83199999999999</v>
+      </c>
+      <c r="F69">
+        <v>943.149</v>
+      </c>
+      <c r="G69">
+        <v>2214.4540000000002</v>
+      </c>
+      <c r="H69">
+        <v>5655.4769999999999</v>
+      </c>
+      <c r="I69">
+        <v>529.44200000000001</v>
+      </c>
+      <c r="J69">
+        <v>2054.1320000000001</v>
+      </c>
+      <c r="K69">
+        <v>815.58799999999997</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>2337.67</v>
+      </c>
+      <c r="O69">
+        <v>4816.5010000000002</v>
+      </c>
+      <c r="P69">
+        <v>3169.8159999999998</v>
+      </c>
+      <c r="Q69">
+        <v>60.994</v>
+      </c>
+      <c r="R69">
+        <v>43009</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>838.976</v>
+      </c>
+      <c r="U69">
+        <v>275.05599999999998</v>
+      </c>
+      <c r="V69">
+        <v>290.16500000000002</v>
+      </c>
+      <c r="W69">
+        <v>-135.71700000000001</v>
+      </c>
+      <c r="X69">
+        <v>-150.57900000000001</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-17.562000000000001</v>
+      </c>
+      <c r="AA69">
+        <v>273.303</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>181.13300000000001</v>
+      </c>
+      <c r="D70">
+        <v>1939.636</v>
+      </c>
+      <c r="E70">
+        <v>588.26199999999994</v>
+      </c>
+      <c r="F70">
+        <v>835.91300000000001</v>
+      </c>
+      <c r="G70">
+        <v>2001.91</v>
+      </c>
+      <c r="H70">
+        <v>5553.7259999999997</v>
+      </c>
+      <c r="I70">
+        <v>523.22900000000004</v>
+      </c>
+      <c r="J70">
+        <v>1961.829</v>
+      </c>
+      <c r="K70">
+        <v>559.35900000000004</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>2076.5430000000001</v>
+      </c>
+      <c r="O70">
+        <v>4622.1610000000001</v>
+      </c>
+      <c r="P70">
+        <v>2920.48</v>
+      </c>
+      <c r="Q70">
+        <v>105.123</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>15360</v>
+      </c>
+      <c r="T70">
+        <v>931.56500000000005</v>
+      </c>
+      <c r="U70">
+        <v>380.17899999999997</v>
+      </c>
+      <c r="V70">
+        <v>623.61599999999999</v>
+      </c>
+      <c r="W70">
+        <v>-134.42699999999999</v>
+      </c>
+      <c r="X70">
+        <v>-378.04899999999998</v>
+      </c>
+      <c r="Y70">
+        <v>99.194000000000003</v>
+      </c>
+      <c r="Z70">
+        <v>-38.621000000000002</v>
+      </c>
+      <c r="AA70">
+        <v>181.13300000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43191</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>350.20299999999997</v>
+      </c>
+      <c r="D71">
+        <v>1971.9590000000001</v>
+      </c>
+      <c r="E71">
+        <v>614.29499999999996</v>
+      </c>
+      <c r="F71">
+        <v>981.23599999999999</v>
+      </c>
+      <c r="G71">
+        <v>2270.4960000000001</v>
+      </c>
+      <c r="H71">
+        <v>7332.7979999999998</v>
+      </c>
+      <c r="I71">
+        <v>519.98800000000006</v>
+      </c>
+      <c r="J71">
+        <v>2059.9340000000002</v>
+      </c>
+      <c r="K71">
+        <v>2246.4850000000001</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-607.92200000000003</v>
+      </c>
+      <c r="N71">
+        <v>3705.5070000000001</v>
+      </c>
+      <c r="O71">
+        <v>6343.143</v>
+      </c>
+      <c r="P71">
+        <v>4609.4809999999998</v>
+      </c>
+      <c r="Q71">
+        <v>96.254999999999995</v>
+      </c>
+      <c r="R71">
+        <v>43191</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>989.65499999999997</v>
+      </c>
+      <c r="U71">
+        <v>476.43400000000003</v>
+      </c>
+      <c r="V71">
+        <v>352.05700000000002</v>
+      </c>
+      <c r="W71">
+        <v>-134.30000000000001</v>
+      </c>
+      <c r="X71">
+        <v>725.90499999999997</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>-6.2809999999999997</v>
+      </c>
+      <c r="AA71">
+        <v>350.20299999999997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43282</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>226.85499999999999</v>
+      </c>
+      <c r="D72">
+        <v>1751.615</v>
+      </c>
+      <c r="E72">
+        <v>501.863</v>
+      </c>
+      <c r="F72">
+        <v>800.76700000000005</v>
+      </c>
+      <c r="G72">
+        <v>2365.105</v>
+      </c>
+      <c r="H72">
+        <v>7405.6530000000002</v>
+      </c>
+      <c r="I72">
+        <v>496.86500000000001</v>
+      </c>
+      <c r="J72">
+        <v>3249.6889999999999</v>
+      </c>
+      <c r="K72">
+        <v>1046.9269999999999</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>2514.2570000000001</v>
+      </c>
+      <c r="O72">
+        <v>6341.8360000000002</v>
+      </c>
+      <c r="P72">
+        <v>4601.0169999999998</v>
+      </c>
+      <c r="Q72">
+        <v>-9.0820000000000007</v>
+      </c>
+      <c r="R72">
+        <v>43282</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>1063.817</v>
+      </c>
+      <c r="U72">
+        <v>467.35199999999998</v>
+      </c>
+      <c r="V72">
+        <v>250.82499999999999</v>
+      </c>
+      <c r="W72">
+        <v>-133.57900000000001</v>
+      </c>
+      <c r="X72">
+        <v>-172.74600000000001</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>-22.745999999999999</v>
+      </c>
+      <c r="AA72">
+        <v>226.85499999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>263.71300000000002</v>
+      </c>
+      <c r="D73">
+        <v>2079.5929999999998</v>
+      </c>
+      <c r="E73">
+        <v>814.923</v>
+      </c>
+      <c r="F73">
+        <v>868.05799999999999</v>
+      </c>
+      <c r="G73">
+        <v>2794.0459999999998</v>
+      </c>
+      <c r="H73">
+        <v>7836.1890000000003</v>
+      </c>
+      <c r="I73">
+        <v>581.48099999999999</v>
+      </c>
+      <c r="J73">
+        <v>3253.8789999999999</v>
+      </c>
+      <c r="K73">
+        <v>1449.2260000000001</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>2758.826</v>
+      </c>
+      <c r="O73">
+        <v>6586.9170000000004</v>
+      </c>
+      <c r="P73">
+        <v>4706.22</v>
+      </c>
+      <c r="Q73">
+        <v>356.435</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>1249.2719999999999</v>
+      </c>
+      <c r="U73">
+        <v>823.78700000000003</v>
+      </c>
+      <c r="V73">
+        <v>289.97899999999998</v>
+      </c>
+      <c r="W73">
+        <v>-147.29900000000001</v>
+      </c>
+      <c r="X73">
+        <v>-24.143000000000001</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>-5.1429999999999998</v>
+      </c>
+      <c r="AA73">
+        <v>263.71300000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>336.791</v>
+      </c>
+      <c r="D74">
+        <v>1987.902</v>
+      </c>
+      <c r="E74">
+        <v>594.14499999999998</v>
+      </c>
+      <c r="F74">
+        <v>941.57399999999996</v>
+      </c>
+      <c r="G74">
+        <v>2239.181</v>
+      </c>
+      <c r="H74">
+        <v>7703.02</v>
+      </c>
+      <c r="I74">
+        <v>502.31400000000002</v>
+      </c>
+      <c r="J74">
+        <v>3152.3</v>
+      </c>
+      <c r="K74">
+        <v>1197.9290000000001</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>2418.5659999999998</v>
+      </c>
+      <c r="O74">
+        <v>6295.7539999999999</v>
+      </c>
+      <c r="P74">
+        <v>4457.5959999999995</v>
+      </c>
+      <c r="Q74">
+        <v>-235.78899999999999</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>14930</v>
+      </c>
+      <c r="T74">
+        <v>1407.2660000000001</v>
+      </c>
+      <c r="U74">
+        <v>587.99800000000005</v>
+      </c>
+      <c r="V74">
+        <v>707.13199999999995</v>
+      </c>
+      <c r="W74">
+        <v>-147.34299999999999</v>
+      </c>
+      <c r="X74">
+        <v>-412.90800000000002</v>
+      </c>
+      <c r="Y74">
+        <v>101.98</v>
+      </c>
+      <c r="Z74">
+        <v>-18.471</v>
+      </c>
+      <c r="AA74">
+        <v>336.791</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>304.358</v>
+      </c>
+      <c r="D75">
+        <v>2016.4880000000001</v>
+      </c>
+      <c r="E75">
+        <v>694.13599999999997</v>
+      </c>
+      <c r="F75">
+        <v>892.50400000000002</v>
+      </c>
+      <c r="G75">
+        <v>2216.9290000000001</v>
+      </c>
+      <c r="H75">
+        <v>7857.3760000000002</v>
+      </c>
+      <c r="I75">
+        <v>500.63299999999998</v>
+      </c>
+      <c r="J75">
+        <v>3161.6849999999999</v>
+      </c>
+      <c r="K75">
+        <v>1168.78</v>
+      </c>
+      <c r="L75">
+        <v>-28.99</v>
+      </c>
+      <c r="M75">
+        <v>-3.1349999999999998</v>
+      </c>
+      <c r="N75">
+        <v>2398.1849999999999</v>
+      </c>
+      <c r="O75">
+        <v>6434.0159999999996</v>
+      </c>
+      <c r="P75">
+        <v>4618.4639999999999</v>
+      </c>
+      <c r="Q75">
+        <v>-122.033</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>1423.36</v>
+      </c>
+      <c r="U75">
+        <v>465.96499999999997</v>
+      </c>
+      <c r="V75">
+        <v>329.96</v>
+      </c>
+      <c r="W75">
+        <v>-146.46299999999999</v>
+      </c>
+      <c r="X75">
+        <v>-341.14499999999998</v>
+      </c>
+      <c r="Y75">
+        <v>254.268</v>
+      </c>
+      <c r="Z75">
+        <v>-18.884</v>
+      </c>
+      <c r="AA75">
+        <v>304.358</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>312.83999999999997</v>
+      </c>
+      <c r="D76">
+        <v>1767.2170000000001</v>
+      </c>
+      <c r="E76">
+        <v>538.74599999999998</v>
+      </c>
+      <c r="F76">
+        <v>874.74400000000003</v>
+      </c>
+      <c r="G76">
+        <v>2093.558</v>
+      </c>
+      <c r="H76">
+        <v>7793.56</v>
+      </c>
+      <c r="I76">
+        <v>479.79199999999997</v>
+      </c>
+      <c r="J76">
+        <v>2812.645</v>
+      </c>
+      <c r="K76">
+        <v>886.779</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>2387.4270000000001</v>
+      </c>
+      <c r="O76">
+        <v>6109.4790000000003</v>
+      </c>
+      <c r="P76">
+        <v>4351.2759999999998</v>
+      </c>
+      <c r="Q76">
+        <v>-100.002</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>1684.0809999999999</v>
+      </c>
+      <c r="U76">
+        <v>365.96300000000002</v>
+      </c>
+      <c r="V76">
+        <v>349.36799999999999</v>
+      </c>
+      <c r="W76">
+        <v>-149.02000000000001</v>
+      </c>
+      <c r="X76">
+        <v>-357.58499999999998</v>
+      </c>
+      <c r="Y76">
+        <v>270.06299999999999</v>
+      </c>
+      <c r="Z76">
+        <v>-11.385999999999999</v>
+      </c>
+      <c r="AA76">
+        <v>312.83999999999997</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43737</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>325.30700000000002</v>
+      </c>
+      <c r="D77">
+        <v>2134.422</v>
+      </c>
+      <c r="E77">
+        <v>849.21799999999996</v>
+      </c>
+      <c r="F77">
+        <v>943.31799999999998</v>
+      </c>
+      <c r="G77">
+        <v>2375.0549999999998</v>
+      </c>
+      <c r="H77">
+        <v>8464.26</v>
+      </c>
+      <c r="I77">
+        <v>553.56100000000004</v>
+      </c>
+      <c r="J77">
+        <v>2817.6089999999999</v>
+      </c>
+      <c r="K77">
+        <v>1275.43</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>2982.3739999999998</v>
+      </c>
+      <c r="O77">
+        <v>6702.6689999999999</v>
+      </c>
+      <c r="P77">
+        <v>4738.6080000000002</v>
+      </c>
+      <c r="Q77">
+        <v>-63.326999999999998</v>
+      </c>
+      <c r="R77">
+        <v>43737</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>1761.5909999999999</v>
+      </c>
+      <c r="U77">
+        <v>302.63600000000002</v>
+      </c>
+      <c r="V77">
+        <v>314.05900000000003</v>
+      </c>
+      <c r="W77">
+        <v>-157.727</v>
+      </c>
+      <c r="X77">
+        <v>115.90600000000001</v>
+      </c>
+      <c r="Y77">
+        <v>263.64800000000002</v>
+      </c>
+      <c r="Z77">
+        <v>-22.388000000000002</v>
+      </c>
+      <c r="AA77">
+        <v>325.30700000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>207.18700000000001</v>
+      </c>
+      <c r="D78">
+        <v>2068.125</v>
+      </c>
+      <c r="E78">
+        <v>568.50900000000001</v>
+      </c>
+      <c r="F78">
+        <v>911.91200000000003</v>
+      </c>
+      <c r="G78">
+        <v>2117.1019999999999</v>
+      </c>
+      <c r="H78">
+        <v>8140.3950000000004</v>
+      </c>
+      <c r="I78">
+        <v>550.82799999999997</v>
+      </c>
+      <c r="J78">
+        <v>3455.2489999999998</v>
+      </c>
+      <c r="K78">
+        <v>32.281999999999996</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>2008.7929999999999</v>
+      </c>
+      <c r="O78">
+        <v>6395.4009999999998</v>
+      </c>
+      <c r="P78">
+        <v>4479.857</v>
+      </c>
+      <c r="Q78">
+        <v>190.626</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>14520</v>
+      </c>
+      <c r="T78">
+        <v>1744.9939999999999</v>
+      </c>
+      <c r="U78">
+        <v>493.262</v>
+      </c>
+      <c r="V78">
+        <v>770.48599999999999</v>
+      </c>
+      <c r="W78">
+        <v>-157.102</v>
+      </c>
+      <c r="X78">
+        <v>-498.63099999999997</v>
+      </c>
+      <c r="Y78">
+        <v>259.72699999999998</v>
+      </c>
+      <c r="Z78">
+        <v>-27.571999999999999</v>
+      </c>
+      <c r="AA78">
+        <v>207.18700000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43919</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>271.137</v>
+      </c>
+      <c r="D79">
+        <v>2037.317</v>
+      </c>
+      <c r="E79">
+        <v>705.63900000000001</v>
+      </c>
+      <c r="F79">
+        <v>866.62199999999996</v>
+      </c>
+      <c r="G79">
+        <v>2854.7530000000002</v>
+      </c>
+      <c r="H79">
+        <v>8855.4429999999993</v>
+      </c>
+      <c r="I79">
+        <v>531.928</v>
+      </c>
+      <c r="J79">
+        <v>3377.0650000000001</v>
+      </c>
+      <c r="K79">
+        <v>837.62099999999998</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-1.0860000000000001</v>
+      </c>
+      <c r="N79">
+        <v>2892.799</v>
+      </c>
+      <c r="O79">
+        <v>7180.902</v>
+      </c>
+      <c r="P79">
+        <v>5290.9830000000002</v>
+      </c>
+      <c r="Q79">
+        <v>601.53399999999999</v>
+      </c>
+      <c r="R79">
+        <v>43919</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>1674.5409999999999</v>
+      </c>
+      <c r="U79">
+        <v>1094.796</v>
+      </c>
+      <c r="V79">
+        <v>246.09299999999999</v>
+      </c>
+      <c r="W79">
+        <v>-157.803</v>
+      </c>
+      <c r="X79">
+        <v>495.625</v>
+      </c>
+      <c r="Y79">
+        <v>259.79500000000002</v>
+      </c>
+      <c r="Z79">
+        <v>-11.473000000000001</v>
+      </c>
+      <c r="AA79">
+        <v>271.137</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44010</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>268.90100000000001</v>
+      </c>
+      <c r="D80">
+        <v>1707.329</v>
+      </c>
+      <c r="E80">
+        <v>540.39800000000002</v>
+      </c>
+      <c r="F80">
+        <v>792.55200000000002</v>
+      </c>
+      <c r="G80">
+        <v>2902.944</v>
+      </c>
+      <c r="H80">
+        <v>8911.0709999999999</v>
+      </c>
+      <c r="I80">
+        <v>530.04200000000003</v>
+      </c>
+      <c r="J80">
+        <v>4015.3389999999999</v>
+      </c>
+      <c r="K80">
+        <v>198.29900000000001</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>2214.8180000000002</v>
+      </c>
+      <c r="O80">
+        <v>7154.982</v>
+      </c>
+      <c r="P80">
+        <v>5293.8180000000002</v>
+      </c>
+      <c r="Q80">
+        <v>70.534999999999997</v>
+      </c>
+      <c r="R80">
+        <v>44010</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>1756.0889999999999</v>
+      </c>
+      <c r="U80">
+        <v>1165.3309999999999</v>
+      </c>
+      <c r="V80">
+        <v>367.95400000000001</v>
+      </c>
+      <c r="W80">
+        <v>-156.476</v>
+      </c>
+      <c r="X80">
+        <v>-199.767</v>
+      </c>
+      <c r="Y80">
+        <v>260.49799999999999</v>
+      </c>
+      <c r="Z80">
+        <v>-14.919</v>
+      </c>
+      <c r="AA80">
+        <v>268.90100000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44101</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>447.28300000000002</v>
+      </c>
+      <c r="D81">
+        <v>2219.8290000000002</v>
+      </c>
+      <c r="E81">
+        <v>829.51300000000003</v>
+      </c>
+      <c r="F81">
+        <v>1080.0239999999999</v>
+      </c>
+      <c r="G81">
+        <v>3207.096</v>
+      </c>
+      <c r="H81">
+        <v>9255.0339999999997</v>
+      </c>
+      <c r="I81">
+        <v>589.58600000000001</v>
+      </c>
+      <c r="J81">
+        <v>4017.9630000000002</v>
+      </c>
+      <c r="K81">
+        <v>45.68</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>2228.1930000000002</v>
+      </c>
+      <c r="O81">
+        <v>7186.2209999999995</v>
+      </c>
+      <c r="P81">
+        <v>5150.0860000000002</v>
+      </c>
+      <c r="Q81">
+        <v>40.558</v>
+      </c>
+      <c r="R81">
+        <v>44101</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>2068.8130000000001</v>
+      </c>
+      <c r="U81">
+        <v>1205.8889999999999</v>
+      </c>
+      <c r="V81">
+        <v>481.21899999999999</v>
+      </c>
+      <c r="W81">
+        <v>-163.739</v>
+      </c>
+      <c r="X81">
+        <v>-315.82299999999998</v>
+      </c>
+      <c r="Y81">
+        <v>262.91800000000001</v>
+      </c>
+      <c r="Z81">
+        <v>-20.045999999999999</v>
+      </c>
+      <c r="AA81">
+        <v>447.28300000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>291.387</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>2185.2440000000001</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>615.23299999999995</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>964.28</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>2977.9050000000002</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>9131.8449999999993</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>580.05799999999999</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>4013.8679999999999</v>
       </c>
-      <c r="K42">
+      <c r="K82">
         <v>74.040999999999997</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>1891.7449999999999</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>6893.9620000000004</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>4821.0739999999996</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-61.902000000000001</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>15200</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>2237.8829999999998</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>1143.9870000000001</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>604.39099999999996</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-162.714</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-479.26299999999998</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>257.75799999999998</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-40.773000000000003</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>291.387</v>
       </c>
     </row>
